--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\data-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465D936-E2D3-4F9F-8CC4-86A7B7A0845E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5D9EA-4D35-4359-AF32-785B803C29B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="3" r:id="rId1"/>
-    <sheet name="2021" sheetId="2" r:id="rId2"/>
-    <sheet name="2020" sheetId="1" r:id="rId3"/>
+    <sheet name="2023" sheetId="4" r:id="rId1"/>
+    <sheet name="2022" sheetId="3" r:id="rId2"/>
+    <sheet name="2021" sheetId="2" r:id="rId3"/>
+    <sheet name="2020" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="414">
   <si>
     <t>nama santri</t>
   </si>
@@ -1144,18 +1145,145 @@
   </si>
   <si>
     <t>Ponpes Ar-Rahmah</t>
+  </si>
+  <si>
+    <t>Muhammad Nizam Ghifari</t>
+  </si>
+  <si>
+    <t>Muhammad Daffa Abdul Rafi</t>
+  </si>
+  <si>
+    <t>Zidane Al Asytar Syakur</t>
+  </si>
+  <si>
+    <t>Hanif Syaifullah</t>
+  </si>
+  <si>
+    <t>Nadil Al Fayyadh</t>
+  </si>
+  <si>
+    <t>Ahmad Abdullah Kholis</t>
+  </si>
+  <si>
+    <t>Wildan Habibi Ariyadi</t>
+  </si>
+  <si>
+    <t>Zufar Lahid Royyan Ashidik</t>
+  </si>
+  <si>
+    <t>Ammar Huda Al Farisy</t>
+  </si>
+  <si>
+    <t>Ifroyim Habibullah Fatah</t>
+  </si>
+  <si>
+    <t>Muhammad Nur Riski</t>
+  </si>
+  <si>
+    <t>Kamil Khairul Azam</t>
+  </si>
+  <si>
+    <t>Mirza Faeyza Raziq Ramadhan</t>
+  </si>
+  <si>
+    <t>Khanza nur Assyifa</t>
+  </si>
+  <si>
+    <t>Audrey callysta Fatih</t>
+  </si>
+  <si>
+    <t>Aiko Zahwa syarofana</t>
+  </si>
+  <si>
+    <t>Syifa Salsabila</t>
+  </si>
+  <si>
+    <t>Aisyah Putri Az Zahra</t>
+  </si>
+  <si>
+    <t>Amila nahwal Haq</t>
+  </si>
+  <si>
+    <t>Aisyah muwahhidah</t>
+  </si>
+  <si>
+    <t>23.02.051</t>
+  </si>
+  <si>
+    <t>23.02.052</t>
+  </si>
+  <si>
+    <t>23.02.053</t>
+  </si>
+  <si>
+    <t>23.02.054</t>
+  </si>
+  <si>
+    <t>23.02.055</t>
+  </si>
+  <si>
+    <t>23.02.056</t>
+  </si>
+  <si>
+    <t>23.02.057</t>
+  </si>
+  <si>
+    <t>23.02.058</t>
+  </si>
+  <si>
+    <t>23.02.059</t>
+  </si>
+  <si>
+    <t>23.02.060</t>
+  </si>
+  <si>
+    <t>23.02.061</t>
+  </si>
+  <si>
+    <t>23.02.062</t>
+  </si>
+  <si>
+    <t>23.02.063</t>
+  </si>
+  <si>
+    <t>23.02.064</t>
+  </si>
+  <si>
+    <t>23.02.065</t>
+  </si>
+  <si>
+    <t>23.02.066</t>
+  </si>
+  <si>
+    <t>23.02.067</t>
+  </si>
+  <si>
+    <t>23.02.068</t>
+  </si>
+  <si>
+    <t>23.02.069</t>
+  </si>
+  <si>
+    <t>23.02.070</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1206,7 +1334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1214,29 +1342,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1511,12 +1666,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1598,6 +1753,305 @@
       </c>
     </row>
     <row r="2" spans="1:18">
+      <c r="A2" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:R21">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="46" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="6" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -2243,12 +2697,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3587,12 +4041,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\data mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5D9EA-4D35-4359-AF32-785B803C29B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D861D-F9F5-4E5D-9584-80DE66BC92AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <sheet name="2020" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1669,9 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1956,7 +1967,7 @@
       <c r="R21" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R21">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2689,7 +2700,7 @@
       <c r="M13" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R23">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2701,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4046,7 +4057,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5106,7 +5117,7 @@
       <c r="M19" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R17">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D861D-F9F5-4E5D-9584-80DE66BC92AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CAD5E-17BA-41E3-9375-40F3C770105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="444">
   <si>
     <t>nama santri</t>
   </si>
@@ -1276,6 +1276,96 @@
   </si>
   <si>
     <t>23.02.070</t>
+  </si>
+  <si>
+    <t>Samarinda, 4 Desember 2011</t>
+  </si>
+  <si>
+    <t>Jalan Rapak Indah Permai, Puri Kencana, Blok L, RT 50, No. 18, Lok Bahu, Sungai Kunjang, Samarinda, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Heri Sucipto</t>
+  </si>
+  <si>
+    <t>ASN Guru</t>
+  </si>
+  <si>
+    <t>081346536100</t>
+  </si>
+  <si>
+    <t>Anisa</t>
+  </si>
+  <si>
+    <t>nik</t>
+  </si>
+  <si>
+    <t>6472064412110002</t>
+  </si>
+  <si>
+    <t>Samarinda, 27 Maret 2011</t>
+  </si>
+  <si>
+    <t>Jalan Raudah, RT 20, No. 30, Kel. Teluk Lerong Ilir, Samarinda Ulu, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>6472066703110006</t>
+  </si>
+  <si>
+    <t>hp ayah</t>
+  </si>
+  <si>
+    <t>hp ibu</t>
+  </si>
+  <si>
+    <t>Samarinda, 23 Agustus 2010</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Jalan KS Tubun, Gang Wiratirta, RT 17, Kelurahan Sidodadi, Kecamatan Samarinda Ulu, Kota Samarinda, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Ferdiansyah</t>
+  </si>
+  <si>
+    <t>082228455833</t>
+  </si>
+  <si>
+    <t>Supiani</t>
+  </si>
+  <si>
+    <t>082253334847</t>
+  </si>
+  <si>
+    <t>6472032308100006</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 September 2010</t>
+  </si>
+  <si>
+    <t>Balikpapan Regency, De Valley, D2-33, Sepinggan, Balikpapan</t>
+  </si>
+  <si>
+    <t>Ade Gustama</t>
+  </si>
+  <si>
+    <t>08565294588</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>Siti Pitriyani</t>
+  </si>
+  <si>
+    <t>08565294587</t>
+  </si>
+  <si>
+    <t>Administrasi Keuangan (Akuntansi)</t>
+  </si>
+  <si>
+    <t>6472026809100001</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1403,6 +1493,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,11 +1770,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T6" sqref="T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="46" style="8" customWidth="1"/>
+    <col min="9" max="10" width="23.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="8" customWidth="1"/>
+    <col min="12" max="13" width="18.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="6" style="8" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75">
+      <c r="A11" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S21">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1707,7 +2270,7 @@
     <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1762,307 +2325,11 @@
       <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
-      <c r="A11" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R21">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="46" style="8" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="6" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -2119,7 +2386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
@@ -2176,7 +2443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
@@ -2233,7 +2500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
@@ -2290,7 +2557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
@@ -2347,7 +2614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
@@ -2404,7 +2671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
         <v>73</v>
       </c>
@@ -2461,7 +2728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
         <v>81</v>
       </c>
@@ -2518,7 +2785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>89</v>
       </c>
@@ -2575,7 +2842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>96</v>
       </c>
@@ -2632,7 +2899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>105</v>
       </c>
@@ -2689,7 +2956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="H13" s="11"/>
@@ -2710,11 +2977,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -2737,7 +3002,7 @@
     <col min="18" max="18" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2792,8 +3057,11 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="6" customFormat="1">
+      <c r="S1" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -2850,7 +3118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -2907,7 +3175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
@@ -2964,7 +3232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>131</v>
       </c>
@@ -3021,7 +3289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>139</v>
       </c>
@@ -3078,7 +3346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>146</v>
       </c>
@@ -3135,7 +3403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>153</v>
       </c>
@@ -3192,7 +3460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>160</v>
       </c>
@@ -3249,7 +3517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="6" customFormat="1">
+    <row r="10" spans="1:19" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>163</v>
       </c>
@@ -3306,7 +3574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
@@ -3363,7 +3631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>172</v>
       </c>
@@ -3420,7 +3688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
@@ -3477,7 +3745,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1">
+    <row r="14" spans="1:19" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>186</v>
       </c>
@@ -3534,7 +3802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="4" t="s">
         <v>193</v>
       </c>
@@ -3591,7 +3859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
         <v>200</v>
       </c>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CAD5E-17BA-41E3-9375-40F3C770105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5249B-F4CA-41D4-B039-953E86782E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,9 +627,6 @@
     <t>Loa Janan, 30 Juni 2008</t>
   </si>
   <si>
-    <t>Loa Duri Ilir, RT 7, Jln. Gerbang Dayaku</t>
-  </si>
-  <si>
     <t>Fajri</t>
   </si>
   <si>
@@ -1366,13 +1363,16 @@
   </si>
   <si>
     <t>6472026809100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1406,6 +1406,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1462,7 +1470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1495,6 +1503,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1774,7 +1783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T6" sqref="T6"/>
+      <selection pane="topRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1799,95 +1808,95 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:20" ht="15.75">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>420</v>
+      <c r="T1" s="24" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>37</v>
@@ -1899,22 +1908,22 @@
         <v>23</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>129</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
@@ -1927,18 +1936,18 @@
         <v>31</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>37</v>
@@ -1950,28 +1959,28 @@
         <v>23</v>
       </c>
       <c r="G5" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="M5" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>441</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>442</v>
       </c>
       <c r="O5" s="22" t="s">
         <v>29</v>
@@ -1980,23 +1989,23 @@
         <v>31</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K7" s="12"/>
       <c r="R7" s="12"/>
@@ -2004,38 +2013,38 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" s="11"/>
       <c r="G11" s="11"/>
@@ -2049,24 +2058,24 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
@@ -2075,25 +2084,25 @@
         <v>23</v>
       </c>
       <c r="G13" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>430</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>431</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>432</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>433</v>
       </c>
       <c r="N13" s="22" t="s">
         <v>28</v>
@@ -2105,45 +2114,45 @@
         <v>31</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K17" s="12"/>
       <c r="R17" s="12"/>
@@ -2151,13 +2160,13 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>37</v>
@@ -2169,22 +2178,22 @@
         <v>23</v>
       </c>
       <c r="G18" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="I18" s="22" t="s">
+      <c r="J18" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="K18" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="L18" s="22" t="s">
         <v>418</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>419</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22" t="s">
@@ -2197,35 +2206,35 @@
         <v>31</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -2235,7 +2244,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2244,8 +2253,8 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2326,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2979,7 +2988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -3058,7 +3069,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1">
@@ -3825,20 +3836,20 @@
         <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>197</v>
+        <v>443</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Loa Duri Ilir, RT 7, Jln. Gerbang Dayaku</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>122</v>
@@ -3861,16 +3872,16 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
@@ -3882,20 +3893,20 @@
         <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Borneo, RT 24, Kel. Simpang Pasir, Palaran</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>129</v>
@@ -3918,16 +3929,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>37</v>
@@ -3939,20 +3950,20 @@
         <v>23</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Desa Sidomulyo, RT 10, No. 20, Kec. Anggana, Kab. Kukar, Kaltim</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>122</v>
@@ -3975,16 +3986,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>37</v>
@@ -3996,20 +4007,20 @@
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ulaq Nanga, Gang Melati</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>122</v>
@@ -4032,16 +4043,16 @@
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
@@ -4053,20 +4064,20 @@
         <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Karet, Blok F, RT 29, Loa Janan Ulu</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>122</v>
@@ -4089,16 +4100,16 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
@@ -4110,20 +4121,20 @@
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Perum. Apel Biru Hill, Blok AZ, No. 9, Jln. Jakarta, Loa Bakung, Samarinda</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>40</v>
@@ -4146,16 +4157,16 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
@@ -4167,20 +4178,20 @@
         <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Bung Tomo, Perum Keledang Mas Baru, blok BS no 21, RT 20, Kec. Samarinda Seberang, Kel. Sungai Keledang</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>122</v>
@@ -4203,16 +4214,16 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>22</v>
@@ -4224,20 +4235,20 @@
         <v>23</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Loa Pari, RT 4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>122</v>
@@ -4260,16 +4271,16 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>37</v>
@@ -4281,19 +4292,19 @@
         <v>23</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>79</v>
@@ -4407,16 +4418,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -4428,20 +4439,20 @@
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I18" si="0">H2</f>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>122</v>
@@ -4450,7 +4461,7 @@
         <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>31</v>
@@ -4464,16 +4475,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -4485,20 +4496,20 @@
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>122</v>
@@ -4507,7 +4518,7 @@
         <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>31</v>
@@ -4521,16 +4532,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
         <v>267</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" t="s">
         <v>269</v>
-      </c>
-      <c r="D4" t="s">
-        <v>270</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -4542,20 +4553,20 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
       <c r="J4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K4" t="s">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
@@ -4564,7 +4575,7 @@
         <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
@@ -4578,16 +4589,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
         <v>274</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" t="s">
         <v>276</v>
-      </c>
-      <c r="D5" t="s">
-        <v>277</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -4599,20 +4610,20 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mugirejo RT 10 Kelurahan Mugirejo</v>
       </c>
       <c r="J5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M5" t="s">
         <v>129</v>
@@ -4621,7 +4632,7 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
@@ -4635,16 +4646,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
         <v>281</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" t="s">
         <v>283</v>
-      </c>
-      <c r="D6" t="s">
-        <v>284</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -4656,20 +4667,20 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta 2 RT 81 Kelurahan Loa Bakung</v>
       </c>
       <c r="J6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M6" t="s">
         <v>122</v>
@@ -4678,7 +4689,7 @@
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
@@ -4692,16 +4703,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
         <v>288</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" t="s">
         <v>290</v>
-      </c>
-      <c r="D7" t="s">
-        <v>291</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -4713,20 +4724,20 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Slamet Riyadi RT 14 Kelurahan Teluk Lerong Ulu</v>
       </c>
       <c r="J7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M7" t="s">
         <v>122</v>
@@ -4735,7 +4746,7 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P7" t="s">
         <v>31</v>
@@ -4749,16 +4760,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
         <v>295</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" t="s">
         <v>297</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -4770,20 +4781,20 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Gerbang Dayaku RT 24 Kelurahan Loa Duri Ilir</v>
       </c>
       <c r="J8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M8" t="s">
         <v>122</v>
@@ -4792,7 +4803,7 @@
         <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -4806,16 +4817,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
         <v>302</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>304</v>
-      </c>
-      <c r="D9" t="s">
-        <v>305</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -4827,20 +4838,20 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Diponegoro RT 8 Desa Sidomulyo</v>
       </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K9" t="s">
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M9" t="s">
         <v>122</v>
@@ -4849,7 +4860,7 @@
         <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P9" t="s">
         <v>31</v>
@@ -4863,16 +4874,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
         <v>309</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" t="s">
         <v>311</v>
-      </c>
-      <c r="D10" t="s">
-        <v>312</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -4884,20 +4895,20 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mubasyirot RT 29 Kelurahan Loa Janan Ulu</v>
       </c>
       <c r="J10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M10" t="s">
         <v>122</v>
@@ -4906,7 +4917,7 @@
         <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P10" t="s">
         <v>31</v>
@@ -4920,16 +4931,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" t="s">
         <v>316</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" t="s">
         <v>318</v>
-      </c>
-      <c r="D11" t="s">
-        <v>319</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -4941,20 +4952,20 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>Jl. KH Mas Mansyur RT 18 Kelurahan Loa Bakung</v>
       </c>
       <c r="J11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K11" t="s">
         <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M11" t="s">
         <v>122</v>
@@ -4963,7 +4974,7 @@
         <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P11" t="s">
         <v>31</v>
@@ -4977,16 +4988,16 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
@@ -4998,20 +5009,20 @@
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RT 12 Desa Sidomulyo Kecamatan Anggana</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>122</v>
@@ -5020,7 +5031,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>31</v>
@@ -5034,16 +5045,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
         <v>331</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" t="s">
         <v>333</v>
-      </c>
-      <c r="D13" t="s">
-        <v>334</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
@@ -5055,20 +5066,20 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Revolusi RT 6 Kelurahan Lok Bahu</v>
       </c>
       <c r="J13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K13" t="s">
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M13" t="s">
         <v>122</v>
@@ -5077,7 +5088,7 @@
         <v>29</v>
       </c>
       <c r="O13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P13" t="s">
         <v>31</v>
@@ -5091,16 +5102,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" t="s">
         <v>338</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" t="s">
         <v>340</v>
-      </c>
-      <c r="D14" t="s">
-        <v>341</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -5112,20 +5123,20 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Raudah RT 20 Kelurahan Teluk Lerong Ilir</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K14" t="s">
         <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M14" t="s">
         <v>129</v>
@@ -5134,7 +5145,7 @@
         <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P14" t="s">
         <v>31</v>
@@ -5148,16 +5159,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
@@ -5169,20 +5180,20 @@
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>122</v>
@@ -5191,7 +5202,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>31</v>
@@ -5205,16 +5216,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
@@ -5226,20 +5237,20 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>122</v>
@@ -5248,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>31</v>
@@ -5262,16 +5273,16 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
@@ -5283,20 +5294,20 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok S Kelurahan Loa Bakung</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>122</v>
@@ -5305,13 +5316,13 @@
         <v>29</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>32</v>
@@ -5319,16 +5330,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -5340,35 +5351,35 @@
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. KS. Tubun Dalam, Gg. Wiratirta, RT 17, No. 26, Samarinda, Kaltim</v>
       </c>
       <c r="J18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N18" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>32</v>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5249B-F4CA-41D4-B039-953E86782E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115B9C4-5970-4969-8D42-7C31C2CAD0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="467">
   <si>
     <t>nama santri</t>
   </si>
@@ -1366,18 +1366,94 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ARVIANDOW</t>
+  </si>
+  <si>
+    <t>AYATURRAHMAN SHINRA AUFA</t>
+  </si>
+  <si>
+    <t>HAZWAN HAFIDZUDIN</t>
+  </si>
+  <si>
+    <t>KHALID GHAZY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RADJA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RASYA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAYHAN</t>
+  </si>
+  <si>
+    <t>RASHA AGHINA</t>
+  </si>
+  <si>
+    <t>RIHAL MUHARRIKUL HAQ</t>
+  </si>
+  <si>
+    <t>ZAHY AWWAB</t>
+  </si>
+  <si>
+    <t>ANNA ALTHAFUNNISA</t>
+  </si>
+  <si>
+    <t>HANIFATUL QOIMAH</t>
+  </si>
+  <si>
+    <t>MILA NAJIYAH</t>
+  </si>
+  <si>
+    <t>NAJWA HANI FILLAH</t>
+  </si>
+  <si>
+    <t>NAYLA IZZATUL HASANAH</t>
+  </si>
+  <si>
+    <t>NIDA KHALWATUS S</t>
+  </si>
+  <si>
+    <t>RISKA FITRIANA PUTRI</t>
+  </si>
+  <si>
+    <t>SAFARAZ AUFA RIFDAH</t>
+  </si>
+  <si>
+    <t>ZAHRA MADANIAH</t>
+  </si>
+  <si>
+    <t>WALDAN FAIQ HASAN</t>
+  </si>
+  <si>
+    <t>MARYAM FIKRIA TASYA</t>
+  </si>
+  <si>
+    <t>rasya</t>
+  </si>
+  <si>
+    <t>akrom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1470,26 +1546,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1498,12 +1574,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1781,9 +1862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2986,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3155,7 +3236,7 @@
         <v>119</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>H3</f>
         <v>Jln. Banggris, No. 18, RT 3, 75127</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3190,13 +3271,13 @@
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="26" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3208,7 +3289,7 @@
       <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="26" t="s">
         <v>127</v>
       </c>
       <c r="I4" s="4" t="str">
@@ -3244,16 +3325,16 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="26" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="26" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3265,7 +3346,7 @@
       <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="26" t="s">
         <v>135</v>
       </c>
       <c r="I5" s="4" t="str">
@@ -3301,16 +3382,16 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="26" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3322,7 +3403,7 @@
       <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="26" t="s">
         <v>143</v>
       </c>
       <c r="I6" s="4" t="str">
@@ -3358,10 +3439,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="26" t="s">
         <v>147</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3379,7 +3460,7 @@
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="I7" s="4" t="str">
@@ -4325,9 +4406,120 @@
         <v>32</v>
       </c>
     </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="25" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115B9C4-5970-4969-8D42-7C31C2CAD0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3EABD7-9412-4241-92BC-DBDDEAA6ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="105" windowWidth="11925" windowHeight="10965" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="456">
   <si>
     <t>nama santri</t>
   </si>
@@ -1365,9 +1365,6 @@
     <t>6472026809100001</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ARVIANDOW</t>
   </si>
   <si>
@@ -1383,27 +1380,12 @@
     <t>MUHAMMAD RADJA</t>
   </si>
   <si>
-    <t>MUHAMMAD RASYA</t>
-  </si>
-  <si>
     <t>MUHAMMAD RAYHAN</t>
   </si>
   <si>
-    <t>RASHA AGHINA</t>
-  </si>
-  <si>
     <t>RIHAL MUHARRIKUL HAQ</t>
   </si>
   <si>
-    <t>ZAHY AWWAB</t>
-  </si>
-  <si>
-    <t>ANNA ALTHAFUNNISA</t>
-  </si>
-  <si>
-    <t>HANIFATUL QOIMAH</t>
-  </si>
-  <si>
     <t>MILA NAJIYAH</t>
   </si>
   <si>
@@ -1416,37 +1398,29 @@
     <t>NIDA KHALWATUS S</t>
   </si>
   <si>
-    <t>RISKA FITRIANA PUTRI</t>
-  </si>
-  <si>
     <t>SAFARAZ AUFA RIFDAH</t>
   </si>
   <si>
-    <t>ZAHRA MADANIAH</t>
-  </si>
-  <si>
     <t>WALDAN FAIQ HASAN</t>
-  </si>
-  <si>
-    <t>MARYAM FIKRIA TASYA</t>
-  </si>
-  <si>
-    <t>rasya</t>
-  </si>
-  <si>
-    <t>akrom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1546,26 +1520,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,17 +1548,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3070,7 +3048,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3403,7 +3381,7 @@
       <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="29" t="s">
         <v>143</v>
       </c>
       <c r="I6" s="4" t="str">
@@ -3460,7 +3438,7 @@
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="29" t="s">
         <v>150</v>
       </c>
       <c r="I7" s="4" t="str">
@@ -3916,12 +3894,10 @@
       <c r="G15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="I15" s="4" t="str">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>197</v>
@@ -4408,114 +4384,94 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="25" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="28" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="25" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="28" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="25" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>466</v>
-      </c>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>465</v>
-      </c>
+      <c r="A34" s="25"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="25" t="s">
-        <v>454</v>
-      </c>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="25" t="s">
-        <v>455</v>
-      </c>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="25" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="25" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="25" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="25" t="s">
-        <v>460</v>
-      </c>
+      <c r="A41" s="25"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="25" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="25" t="s">
-        <v>462</v>
-      </c>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="25" t="s">
-        <v>463</v>
+      <c r="A44" s="28" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="25" t="s">
-        <v>464</v>
-      </c>
+      <c r="A45" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3EABD7-9412-4241-92BC-DBDDEAA6ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3875D65-9861-46BD-A62F-B0F0ADE583D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="105" windowWidth="11925" windowHeight="10965" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="487">
   <si>
     <t>nama santri</t>
   </si>
@@ -1402,18 +1402,132 @@
   </si>
   <si>
     <t>WALDAN FAIQ HASAN</t>
+  </si>
+  <si>
+    <t>AKMAL AL JUNDI</t>
+  </si>
+  <si>
+    <t>ALYA ZULFA RAMADHANI</t>
+  </si>
+  <si>
+    <t>IDRIS</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AL FAHREZY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAISAL ASY SYAMS</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAKHRI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JAMEL ASY SYAHID</t>
+  </si>
+  <si>
+    <t>NAJWA QURROTA'AINI</t>
+  </si>
+  <si>
+    <t>NUR INTAN AMIRAH SHAFIQH</t>
+  </si>
+  <si>
+    <t>RUWAYFI RAFA ALHAMDANI</t>
+  </si>
+  <si>
+    <t>SEKAR ARUM WIJAYANTI</t>
+  </si>
+  <si>
+    <t>AHMAD ABDULLAH KHOLIS</t>
+  </si>
+  <si>
+    <t>AIKO ZAHWA SYAROFANA</t>
+  </si>
+  <si>
+    <t>AISYAH MUWAHHIDAH</t>
+  </si>
+  <si>
+    <t>AISYAH PUTRI AZ ZAHRA</t>
+  </si>
+  <si>
+    <t>AMILA NAHWAL HAQ</t>
+  </si>
+  <si>
+    <t>AMMAR HUDA AL FARISY</t>
+  </si>
+  <si>
+    <t>AUDREY CALLYSTA FATIH</t>
+  </si>
+  <si>
+    <t>HANIF SYAIFULLAH</t>
+  </si>
+  <si>
+    <t>IFROYIM HABIBULLAH FATAH</t>
+  </si>
+  <si>
+    <t>KAMIL KHAIRUL AZAM</t>
+  </si>
+  <si>
+    <t>KHANZA NUR ASSYIFA</t>
+  </si>
+  <si>
+    <t>MIRZA FAEYZA RAZIQ RAMADHAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DAFFA ABDUL RAFI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NIZAM GHIFARI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NUR RISKI</t>
+  </si>
+  <si>
+    <t>NADIL AL FAYYADH</t>
+  </si>
+  <si>
+    <t>SYIFA SALSABILA</t>
+  </si>
+  <si>
+    <t>WILDAN HABIBI ARIYADI</t>
+  </si>
+  <si>
+    <t>ZIDANE AL ASYTAR SYAKUR</t>
+  </si>
+  <si>
+    <t>ZUFAR LAHID ROYYAN ASHIDIK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,26 +1634,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,21 +1662,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,11 +1966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2279,7 +2407,7 @@
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="35" t="s">
         <v>375</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2289,7 +2417,7 @@
       <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="35" t="s">
         <v>380</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2297,6 +2425,106 @@
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="33" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="30" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="33" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="33" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="30" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="33" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="33" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="32" t="s">
+        <v>486</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S21">
@@ -2309,11 +2537,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2401,13 +2629,13 @@
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -2419,7 +2647,7 @@
       <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="8" t="str">
@@ -2515,13 +2743,13 @@
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2533,7 +2761,7 @@
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="8" t="str">
@@ -2572,13 +2800,13 @@
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="31" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2590,7 +2818,7 @@
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="31" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="8" t="str">
@@ -2629,7 +2857,7 @@
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2647,7 +2875,7 @@
       <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="8" t="str">
@@ -2686,13 +2914,13 @@
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="31" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2704,7 +2932,7 @@
       <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="31" t="s">
         <v>68</v>
       </c>
       <c r="I7" s="8" t="str">
@@ -3034,12 +3262,67 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="30" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R23">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3047,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -4383,7 +4666,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="32" t="s">
         <v>443</v>
       </c>
     </row>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3875D65-9861-46BD-A62F-B0F0ADE583D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2670A1-3A3D-4C69-8FD5-A95A7A553823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="569">
   <si>
     <t>nama santri</t>
   </si>
@@ -1495,18 +1495,271 @@
   </si>
   <si>
     <t>ZUFAR LAHID ROYYAN ASHIDIK</t>
+  </si>
+  <si>
+    <t>Samarinda, 7 Juni 2011</t>
+  </si>
+  <si>
+    <t>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</t>
+  </si>
+  <si>
+    <t>085332603831</t>
+  </si>
+  <si>
+    <t>9 Juli 2023</t>
+  </si>
+  <si>
+    <t>6472240706110002</t>
+  </si>
+  <si>
+    <t>Loa Janan, 23 Juni 2008</t>
+  </si>
+  <si>
+    <t>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</t>
+  </si>
+  <si>
+    <t>Priyono</t>
+  </si>
+  <si>
+    <t>085247984698</t>
+  </si>
+  <si>
+    <t>Rachmi</t>
+  </si>
+  <si>
+    <t>082345100099</t>
+  </si>
+  <si>
+    <t>6402032306080003</t>
+  </si>
+  <si>
+    <t>Samarinda, 30 September 2010</t>
+  </si>
+  <si>
+    <t>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</t>
+  </si>
+  <si>
+    <t>Alm. Sugiantoro</t>
+  </si>
+  <si>
+    <t>082250094321</t>
+  </si>
+  <si>
+    <t>Jumiati</t>
+  </si>
+  <si>
+    <t>085751842975</t>
+  </si>
+  <si>
+    <t>6472063009100003</t>
+  </si>
+  <si>
+    <t>Samarinda, 6 Agustus 2010</t>
+  </si>
+  <si>
+    <t>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</t>
+  </si>
+  <si>
+    <t>Danik</t>
+  </si>
+  <si>
+    <t>081350170682</t>
+  </si>
+  <si>
+    <t>Murni Astuti</t>
+  </si>
+  <si>
+    <t>081347528858</t>
+  </si>
+  <si>
+    <t>6472020609100001</t>
+  </si>
+  <si>
+    <t>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</t>
+  </si>
+  <si>
+    <t>Sukiman</t>
+  </si>
+  <si>
+    <t>081350393399</t>
+  </si>
+  <si>
+    <t>Sriyanti</t>
+  </si>
+  <si>
+    <t>085752297414</t>
+  </si>
+  <si>
+    <t>6472010210100003</t>
+  </si>
+  <si>
+    <t>Busang, 16 Juni 2010</t>
+  </si>
+  <si>
+    <t>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Usman Sidik</t>
+  </si>
+  <si>
+    <t>081240255019</t>
+  </si>
+  <si>
+    <t>Fitri Anjarwati</t>
+  </si>
+  <si>
+    <t>082148689206</t>
+  </si>
+  <si>
+    <t>6402131606100002</t>
+  </si>
+  <si>
+    <t>Samarinda, 18 Juni 2011</t>
+  </si>
+  <si>
+    <t>Jalan Gelatik 1, Blok B, RT 13, No 9, Kelurahan Temindung Permai, Kecamatan Sungai Pinang, Samarinda, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Staf TU</t>
+  </si>
+  <si>
+    <t>085246205524</t>
+  </si>
+  <si>
+    <t>6472085806110002</t>
+  </si>
+  <si>
+    <t>Samarinda, 22 Februari 2011</t>
+  </si>
+  <si>
+    <t>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</t>
+  </si>
+  <si>
+    <t>Andriadi</t>
+  </si>
+  <si>
+    <t>082350416888</t>
+  </si>
+  <si>
+    <t>Herlina</t>
+  </si>
+  <si>
+    <t>081250259199</t>
+  </si>
+  <si>
+    <t>6472042202110004</t>
+  </si>
+  <si>
+    <t>Samarinda, 12 Mei 2011</t>
+  </si>
+  <si>
+    <t>Desa Senyiur</t>
+  </si>
+  <si>
+    <t>Edi Rachman</t>
+  </si>
+  <si>
+    <t>081351407060</t>
+  </si>
+  <si>
+    <t>Yunita Vitaloka</t>
+  </si>
+  <si>
+    <t>081351254741</t>
+  </si>
+  <si>
+    <t>6408011205110001</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 April 2011</t>
+  </si>
+  <si>
+    <t>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</t>
+  </si>
+  <si>
+    <t>Roni Muharsyah</t>
+  </si>
+  <si>
+    <t>081515877493</t>
+  </si>
+  <si>
+    <t>Sari Kurniawati</t>
+  </si>
+  <si>
+    <t>6402036604110001</t>
+  </si>
+  <si>
+    <t>Wildan Akhram Pratama</t>
+  </si>
+  <si>
+    <t>23.02.071</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 Maret 2010</t>
+  </si>
+  <si>
+    <t>Simpang Tiga, Loa Janan Ilir, RT 10</t>
+  </si>
+  <si>
+    <t>Suparji</t>
+  </si>
+  <si>
+    <t>081347716701</t>
+  </si>
+  <si>
+    <t>Sukatmi</t>
+  </si>
+  <si>
+    <t>6472025304990003</t>
+  </si>
+  <si>
+    <t>081222240832</t>
+  </si>
+  <si>
+    <t>6472031103110001</t>
+  </si>
+  <si>
+    <t>Samarinda, 11 Maret 2011</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 September 2011</t>
+  </si>
+  <si>
+    <t>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>M Agus Kastiawan</t>
+  </si>
+  <si>
+    <t>Guru ASN</t>
+  </si>
+  <si>
+    <t>Halimatus Sa'diyah</t>
+  </si>
+  <si>
+    <t>085250464198</t>
+  </si>
+  <si>
+    <t>6472056809110001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1607,7 +1860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1630,30 +1883,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,33 +1926,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1966,18 +2233,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="8" customWidth="1"/>
@@ -2064,8 +2331,57 @@
       <c r="B2" s="8" t="s">
         <v>393</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f t="shared" ref="H2:H21" si="0">G2</f>
+        <v>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="20" t="s">
@@ -2074,6 +2390,55 @@
       <c r="B3" s="8" t="s">
         <v>394</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="20" t="s">
@@ -2097,8 +2462,9 @@
       <c r="G4" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>422</v>
+      <c r="H4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Raudah, RT 20, No. 30, Kel. Teluk Lerong Ilir, Samarinda Ulu, Kalimantan Timur</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>342</v>
@@ -2119,6 +2485,9 @@
       <c r="O4" s="22" t="s">
         <v>29</v>
       </c>
+      <c r="P4" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="Q4" s="8" t="s">
         <v>31</v>
       </c>
@@ -2148,8 +2517,9 @@
       <c r="G5" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>435</v>
+      <c r="H5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Balikpapan Regency, De Valley, D2-33, Sepinggan, Balikpapan</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>436</v>
@@ -2171,6 +2541,9 @@
       </c>
       <c r="O5" s="22" t="s">
         <v>29</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>31</v>
@@ -2186,6 +2559,55 @@
       <c r="B6" s="8" t="s">
         <v>397</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Gelatik 1, Blok B, RT 13, No 9, Kelurahan Temindung Permai, Kecamatan Sungai Pinang, Samarinda, Kalimantan Timur</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="19" t="s">
@@ -2194,9 +2616,55 @@
       <c r="B7" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>515</v>
+      </c>
       <c r="K7" s="12"/>
+      <c r="L7" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
+      <c r="T7" s="12" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="20" t="s">
@@ -2205,6 +2673,53 @@
       <c r="B8" s="8" t="s">
         <v>399</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="M8" s="8" t="str">
+        <f>J8</f>
+        <v>081515877493</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="19" t="s">
@@ -2213,8 +2728,54 @@
       <c r="B9" s="8" t="s">
         <v>400</v>
       </c>
+      <c r="C9" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
+      <c r="T9" s="12" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="19" t="s">
@@ -2223,8 +2784,57 @@
       <c r="B10" s="8" t="s">
         <v>401</v>
       </c>
+      <c r="C10" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
+      </c>
+      <c r="I10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>272</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
+      <c r="T10" s="12" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="18" t="s">
@@ -2234,14 +2844,29 @@
         <v>402</v>
       </c>
       <c r="C11" s="11"/>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
+      <c r="O11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="19" t="s">
@@ -2250,6 +2875,22 @@
       <c r="B12" s="8" t="s">
         <v>403</v>
       </c>
+      <c r="F12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="18" t="s">
@@ -2273,8 +2914,9 @@
       <c r="G13" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>428</v>
+      <c r="H13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan KS Tubun, Gang Wiratirta, RT 17, Kelurahan Sidodadi, Kecamatan Samarinda Ulu, Kota Samarinda, Kalimantan Timur</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>429</v>
@@ -2296,6 +2938,9 @@
       </c>
       <c r="O13" s="22" t="s">
         <v>29</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>31</v>
@@ -2311,8 +2956,54 @@
       <c r="B14" s="8" t="s">
         <v>405</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
+      <c r="T14" s="12" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="18" t="s">
@@ -2321,8 +3012,57 @@
       <c r="B15" s="8" t="s">
         <v>406</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
+      <c r="T15" s="12" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="19" t="s">
@@ -2331,8 +3071,57 @@
       <c r="B16" s="8" t="s">
         <v>407</v>
       </c>
+      <c r="C16" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="H16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Desa Senyiur</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
+      <c r="T16" s="12" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="18" t="s">
@@ -2341,9 +3130,57 @@
       <c r="B17" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="C17" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
+      <c r="T17" s="12" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="20" t="s">
@@ -2367,8 +3204,9 @@
       <c r="G18" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>414</v>
+      <c r="H18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Rapak Indah Permai, Puri Kencana, Blok L, RT 50, No. 18, Lok Bahu, Sungai Kunjang, Samarinda, Kalimantan Timur</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>415</v>
@@ -2389,6 +3227,9 @@
       <c r="O18" s="22" t="s">
         <v>29</v>
       </c>
+      <c r="P18" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="Q18" s="8" t="s">
         <v>31</v>
       </c>
@@ -2403,8 +3244,57 @@
       <c r="B19" s="8" t="s">
         <v>410</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
+      <c r="T19" s="12" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="35" t="s">
@@ -2413,6 +3303,22 @@
       <c r="B20" s="8" t="s">
         <v>411</v>
       </c>
+      <c r="F20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
@@ -2423,106 +3329,175 @@
       <c r="B21" s="8" t="s">
         <v>412</v>
       </c>
+      <c r="C21" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="33" t="s">
+      <c r="T21" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="33" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="30" t="s">
+    <row r="26" spans="1:20">
+      <c r="A26" s="30" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="30" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="32" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="30" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="30" t="s">
+    <row r="30" spans="1:20">
+      <c r="A30" s="30" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="33" t="s">
+    <row r="31" spans="1:20">
+      <c r="A31" s="33" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="33" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="30" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="33" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="33" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="33" t="s">
-        <v>479</v>
+      <c r="A35" s="30" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="33" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="33" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="32" t="s">
-        <v>483</v>
+      <c r="A39" s="33" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="33" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="33" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="33" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="32" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="32" t="s">
         <v>486</v>
       </c>
     </row>
@@ -2540,8 +3515,8 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3330,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4766,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2670A1-3A3D-4C69-8FD5-A95A7A553823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53AF96D-EE12-4BB6-87A9-24796C359CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="571">
   <si>
     <t>nama santri</t>
   </si>
@@ -1741,6 +1741,12 @@
   </si>
   <si>
     <t>6472056809110001</t>
+  </si>
+  <si>
+    <t>nisn</t>
+  </si>
+  <si>
+    <t>nis</t>
   </si>
 </sst>
 </file>
@@ -1887,18 +1893,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1929,8 +1937,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1955,8 +1961,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2233,1276 +2267,1386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T3" sqref="T3"/>
+      <selection pane="topRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="46" style="8" customWidth="1"/>
-    <col min="9" max="10" width="23.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="8" customWidth="1"/>
-    <col min="12" max="13" width="18.42578125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="6" style="8" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="4.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14" style="8" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="6" style="8" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:21" ht="15.75">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="45" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="46">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="H2" s="8" t="str">
-        <f t="shared" ref="H2:H21" si="0">G2</f>
+      <c r="I2" s="35" t="str">
+        <f t="shared" ref="I2:I21" si="0">H2</f>
         <v>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="R2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="46">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="I3" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="12" t="s">
+      <c r="R3" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="46">
         <v>2</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="H4" s="22" t="str">
+      <c r="I4" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Raudah, RT 20, No. 30, Kel. Teluk Lerong Ilir, Samarinda Ulu, Kalimantan Timur</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="35"/>
+      <c r="O4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="P4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="12" t="s">
+      <c r="R4" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="H5" s="22" t="str">
+      <c r="I5" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Balikpapan Regency, De Valley, D2-33, Sepinggan, Balikpapan</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="M5" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="N5" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="O5" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="P5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="12" t="s">
+      <c r="R5" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="46">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="H6" s="8" t="str">
+      <c r="I6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Gelatik 1, Blok B, RT 13, No 9, Kelurahan Temindung Permai, Kecamatan Sungai Pinang, Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="N6" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="O6" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="12" t="s">
+      <c r="R6" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="46">
         <v>3</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="H7" s="8" t="str">
+      <c r="I7" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="36"/>
+      <c r="M7" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12" t="s">
+      <c r="R7" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="46">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="I8" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="K8" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="L8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="M8" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="M8" s="8" t="str">
-        <f>J8</f>
+      <c r="N8" s="35" t="str">
+        <f>K8</f>
         <v>081515877493</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="Q8" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="12" t="s">
+      <c r="R8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="46">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>554</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="I9" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="L9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="M9" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="P9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="Q9" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12" t="s">
+      <c r="R9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:21">
+      <c r="A10" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="46">
         <v>3</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="8" t="str">
+      <c r="I10" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="K10" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="L10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="36" t="s">
         <v>559</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="O10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="P10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="Q10" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12" t="s">
+      <c r="R10" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:21" ht="15.75">
+      <c r="A11" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="D11" s="38"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="8" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="Q11" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="19" t="s">
+      <c r="R11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="Q12" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="18" t="s">
+      <c r="R12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="46">
         <v>1</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="H13" s="22" t="str">
+      <c r="I13" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan KS Tubun, Gang Wiratirta, RT 17, Kelurahan Sidodadi, Kecamatan Samarinda Ulu, Kota Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="J13" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="L13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="M13" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="O13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="P13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="Q13" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="12" t="s">
+      <c r="R13" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="36" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:21">
+      <c r="A14" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="46">
         <v>5</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="I14" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="35"/>
+      <c r="M14" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="N14" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="O14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="Q14" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12" t="s">
+      <c r="R14" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:21">
+      <c r="A15" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="46">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="I15" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="K15" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="N15" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="O15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="P15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="Q15" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12" t="s">
+      <c r="R15" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:21">
+      <c r="A16" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="46">
         <v>2</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="I16" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Desa Senyiur</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="N16" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="P16" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="Q16" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12" t="s">
+      <c r="R16" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:21">
+      <c r="A17" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="46">
         <v>1</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="H17" s="8" t="str">
+      <c r="I17" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="K17" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="P17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="Q17" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12" t="s">
+      <c r="R17" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:21">
+      <c r="A18" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="46">
         <v>1</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="H18" s="22" t="str">
+      <c r="I18" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Rapak Indah Permai, Puri Kencana, Blok L, RT 50, No. 18, Lok Bahu, Sungai Kunjang, Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="J18" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="K18" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="L18" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="M18" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="35"/>
+      <c r="O18" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="P18" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="Q18" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="12" t="s">
+      <c r="R18" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:21">
+      <c r="A19" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="46">
         <v>3</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="I19" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="N19" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="O19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="P19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="Q19" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12" t="s">
+      <c r="R19" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:21">
+      <c r="A20" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="Q20" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="35" t="s">
+      <c r="R20" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="35"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="46">
         <v>2</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="I21" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="N21" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="O21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="P21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="Q21" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12" t="s">
+      <c r="R21" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:21">
+      <c r="A22" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="8" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35">
+        <v>0</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="Q22" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="33" t="s">
+      <c r="R22" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="31" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="30" t="s">
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="28" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="30" t="s">
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="28" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="32" t="s">
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="30" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="30" t="s">
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="30" t="s">
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="28" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="33" t="s">
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="31" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="33" t="s">
+      <c r="B31" s="31"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="31" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="30" t="s">
+      <c r="B32" s="31"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="28" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="33" t="s">
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="31" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="30" t="s">
+      <c r="B34" s="31"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="28" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="33" t="s">
+      <c r="B35" s="28"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="31" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="33" t="s">
+      <c r="B36" s="31"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="31" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="33" t="s">
+      <c r="B37" s="31"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="31" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="33" t="s">
+      <c r="B38" s="31"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="31" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="33" t="s">
+      <c r="B39" s="31"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="31" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="32" t="s">
+      <c r="B40" s="31"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="30" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="33" t="s">
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="31" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="33" t="s">
+      <c r="B42" s="31"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="31" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="32" t="s">
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="30" t="s">
         <v>486</v>
       </c>
+      <c r="B44" s="30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T21">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3604,13 +3748,13 @@
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -3622,7 +3766,7 @@
       <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="8" t="str">
@@ -3718,13 +3862,13 @@
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -3736,7 +3880,7 @@
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="8" t="str">
@@ -3775,13 +3919,13 @@
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -3793,7 +3937,7 @@
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="29" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="8" t="str">
@@ -3832,7 +3976,7 @@
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3850,7 +3994,7 @@
       <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="29" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="8" t="str">
@@ -3889,13 +4033,13 @@
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -3907,7 +4051,7 @@
       <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="29" t="s">
         <v>68</v>
       </c>
       <c r="I7" s="8" t="str">
@@ -4238,57 +4382,57 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4305,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4507,13 +4651,13 @@
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -4525,7 +4669,7 @@
       <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>127</v>
       </c>
       <c r="I4" s="4" t="str">
@@ -4561,16 +4705,16 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -4582,7 +4726,7 @@
       <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>135</v>
       </c>
       <c r="I5" s="4" t="str">
@@ -4618,16 +4762,16 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -4639,7 +4783,7 @@
       <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>143</v>
       </c>
       <c r="I6" s="4" t="str">
@@ -4675,10 +4819,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4696,7 +4840,7 @@
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>150</v>
       </c>
       <c r="I7" s="4" t="str">
@@ -5641,95 +5785,80 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="30" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="28"/>
+      <c r="A30" s="26" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="28" t="s">
-        <v>448</v>
+      <c r="A31" s="26" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="H33" s="27"/>
+      <c r="A33" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="25"/>
-      <c r="H34" s="27"/>
+      <c r="A34" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="25"/>
+      <c r="A35" s="23" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="25"/>
+      <c r="A36" s="23" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="25" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="25" t="s">
-        <v>453</v>
+      <c r="A37" s="26" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="25" t="s">
-        <v>454</v>
-      </c>
+      <c r="A41" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="25"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="28" t="s">
-        <v>455</v>
-      </c>
+      <c r="A43" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="25"/>
+      <c r="A45" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5741,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53AF96D-EE12-4BB6-87A9-24796C359CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CB90D-1DD1-464C-BFB8-32965ECD87D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -429,9 +429,6 @@
     <t>Halimatus Sa'diah</t>
   </si>
   <si>
-    <t>Hazwan Hafidzudin</t>
-  </si>
-  <si>
     <t>21.02.021</t>
   </si>
   <si>
@@ -1747,18 +1744,35 @@
   </si>
   <si>
     <t>nis</t>
+  </si>
+  <si>
+    <t>Hazwan Hafizuddin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1906,26 +1920,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,63 +1948,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2269,9 +2290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2304,1344 +2325,1344 @@
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="45" t="s">
-        <v>419</v>
+      <c r="U1" s="44" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="39" t="s">
-        <v>378</v>
+      <c r="A2" s="38" t="s">
+        <v>377</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="45">
+        <v>4</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="46">
-        <v>4</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="I2" s="35" t="str">
+      <c r="I2" s="34" t="str">
         <f t="shared" ref="I2:I21" si="0">H2</f>
         <v>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="46" t="s">
+      <c r="R2" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35" t="s">
         <v>490</v>
       </c>
-      <c r="R2" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="40" t="s">
-        <v>388</v>
+      <c r="A3" s="39" t="s">
+        <v>387</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="46">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="I3" s="35" t="str">
+      <c r="I3" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="N3" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="O3" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="40" t="s">
-        <v>392</v>
+      <c r="A4" s="39" t="s">
+        <v>391</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="45">
+        <v>2</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="46">
-        <v>2</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="I4" s="35" t="str">
+      <c r="I4" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Raudah, RT 20, No. 30, Kel. Teluk Lerong Ilir, Samarinda Ulu, Kalimantan Timur</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="L4" s="35" t="s">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36" t="s">
-        <v>423</v>
+      <c r="Q4" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="41" t="s">
-        <v>390</v>
+      <c r="A5" s="40" t="s">
+        <v>389</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="45">
+        <v>1</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="46">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="I5" s="35" t="str">
+      <c r="I5" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Balikpapan Regency, De Valley, D2-33, Sepinggan, Balikpapan</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="L5" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="M5" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="N5" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="O5" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="P5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="P5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R5" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="40" t="s">
-        <v>391</v>
+      <c r="A6" s="39" t="s">
+        <v>390</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="45">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="46">
-        <v>3</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="I6" s="35" t="str">
+      <c r="I6" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Gelatik 1, Blok B, RT 13, No 9, Kelurahan Temindung Permai, Kecamatan Sungai Pinang, Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="M6" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="36" t="s">
+      <c r="O6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="O6" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="39" t="s">
-        <v>381</v>
+      <c r="A7" s="38" t="s">
+        <v>380</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F7" s="46">
+      <c r="E7" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="45">
         <v>3</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="I7" s="35" t="str">
+      <c r="G7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="I7" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="K7" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="L7" s="35"/>
+      <c r="M7" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35" t="s">
+      <c r="N7" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="O7" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="O7" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R7" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36" t="s">
-        <v>518</v>
-      </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="40" t="s">
-        <v>387</v>
+      <c r="A8" s="39" t="s">
+        <v>386</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="46">
-        <v>1</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="I8" s="35" t="str">
+      <c r="I8" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="L8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="L8" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="N8" s="35" t="str">
+      <c r="N8" s="34" t="str">
         <f>K8</f>
         <v>081515877493</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="46" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36" t="s">
-        <v>550</v>
+      <c r="Q8" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="35" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="39" t="s">
-        <v>376</v>
+      <c r="A9" s="38" t="s">
+        <v>375</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" s="45">
+        <v>3</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F9" s="46">
-        <v>3</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>554</v>
-      </c>
-      <c r="I9" s="35" t="str">
+      <c r="I9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="L9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="L9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="35" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R9" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="39" t="s">
-        <v>382</v>
+      <c r="A10" s="38" t="s">
+        <v>381</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F10" s="46">
+      <c r="C10" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="45">
         <v>3</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="I10" s="35" t="str">
+      <c r="G10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="35" t="s">
+      <c r="N10" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="O10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="N10" s="36" t="s">
+      <c r="P10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35" t="s">
         <v>559</v>
       </c>
-      <c r="O10" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36" t="s">
-        <v>560</v>
-      </c>
     </row>
     <row r="11" spans="1:21" ht="15.75">
-      <c r="A11" s="42" t="s">
-        <v>384</v>
+      <c r="A11" s="41" t="s">
+        <v>383</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38">
+      <c r="C11" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="46" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R11" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
+      <c r="Q11" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="39" t="s">
-        <v>386</v>
+      <c r="A12" s="38" t="s">
+        <v>385</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35">
+      <c r="C12" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="46" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R12" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
+      <c r="Q12" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="42" t="s">
-        <v>385</v>
+      <c r="A13" s="41" t="s">
+        <v>384</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="F13" s="45">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="F13" s="46">
-        <v>1</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="I13" s="35" t="str">
+      <c r="I13" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan KS Tubun, Gang Wiratirta, RT 17, Kelurahan Sidodadi, Kecamatan Samarinda Ulu, Kota Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="K13" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="L13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="L13" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="35" t="s">
+      <c r="N13" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="O13" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="O13" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="39" t="s">
-        <v>374</v>
+      <c r="A14" s="38" t="s">
+        <v>373</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" s="45">
+        <v>5</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F14" s="46">
-        <v>5</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="I14" s="35" t="str">
+      <c r="I14" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35" t="s">
+      <c r="N14" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="O14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R14" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="O14" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R14" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36" t="s">
-        <v>505</v>
-      </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="42" t="s">
-        <v>373</v>
+      <c r="A15" s="41" t="s">
+        <v>372</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F15" s="46">
-        <v>1</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="I15" s="35" t="str">
+      <c r="I15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="K15" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="L15" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="M15" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="M15" s="35" t="s">
+      <c r="N15" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="O15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R15" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36" t="s">
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F16" s="45">
+        <v>2</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F16" s="46">
-        <v>2</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="I16" s="35" t="str">
+      <c r="I16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Desa Senyiur</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="K16" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="L16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="L16" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="35" t="s">
+      <c r="N16" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="O16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="O16" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R16" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="42" t="s">
-        <v>377</v>
+      <c r="A17" s="41" t="s">
+        <v>376</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F17" s="45">
+        <v>1</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F17" s="46">
-        <v>1</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="I17" s="35" t="str">
+      <c r="I17" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="L17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="L17" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="35" t="s">
+      <c r="N17" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="O17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="O17" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="P17" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R17" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36" t="s">
-        <v>512</v>
-      </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="40" t="s">
-        <v>389</v>
+      <c r="A18" s="39" t="s">
+        <v>388</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="46">
-        <v>1</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="I18" s="35" t="str">
+      <c r="I18" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Rapak Indah Permai, Puri Kencana, Blok L, RT 50, No. 18, Lok Bahu, Sungai Kunjang, Samarinda, Kalimantan Timur</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="M18" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="L18" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35" t="s">
+      <c r="N18" s="34"/>
+      <c r="O18" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="46" t="s">
+      <c r="P18" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R18" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="36" t="s">
-        <v>420</v>
+      <c r="Q18" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R18" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="39" t="s">
-        <v>379</v>
+      <c r="A19" s="38" t="s">
+        <v>378</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F19" s="45">
+        <v>3</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F19" s="46">
-        <v>3</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="I19" s="35" t="str">
+      <c r="I19" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="K19" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="L19" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="L19" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="35" t="s">
+      <c r="N19" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="O19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="O19" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R19" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35">
+      <c r="A20" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="46" t="s">
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R20" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="35"/>
+      <c r="Q20" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R20" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="34"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D21" s="35" t="s">
+      <c r="A21" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="45">
+        <v>2</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>519</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F21" s="46">
-        <v>2</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="I21" s="35" t="str">
+      <c r="I21" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="L21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="L21" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="35" t="s">
+      <c r="N21" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="O21" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="O21" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="46" t="s">
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34">
+        <v>0</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q21" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R21" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35" t="s">
-        <v>552</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35">
-        <v>0</v>
-      </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="R22" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
+      <c r="Q22" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R22" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="28"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B31" s="31"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="49" t="s">
         <v>473</v>
-      </c>
-      <c r="B31" s="31"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="31" t="s">
-        <v>474</v>
       </c>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B34" s="31"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B36" s="31"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B37" s="31"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B38" s="31"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B40" s="31"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B41" s="30"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B42" s="31"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B44" s="30"/>
     </row>
@@ -3658,9 +3679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3741,14 +3762,14 @@
         <v>17</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -3862,7 +3883,7 @@
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -3919,7 +3940,7 @@
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3976,7 +3997,7 @@
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="48" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -4033,7 +4054,7 @@
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="48" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -4383,57 +4404,57 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="28" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="46" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="28" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="49" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="31" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="46" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="28" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="46" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="30" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="49" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="31" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="46" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="28" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4449,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4530,63 +4551,63 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="6" t="str">
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I22" si="0">H2</f>
         <v>-</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4651,7 +4672,7 @@
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="47" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4705,17 +4726,17 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -4727,20 +4748,20 @@
         <v>23</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Rukun, Rapak Dalam, Samarinda Seberang</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>129</v>
@@ -4763,16 +4784,16 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
@@ -4784,20 +4805,20 @@
         <v>23</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jl. W. Monginsidi, RT 16, No. 17, Dadimulya, Samarinda, Kaltim</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>122</v>
@@ -4820,16 +4841,16 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
@@ -4841,20 +4862,20 @@
         <v>23</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. AP. Mangkunegara, Teluk Dalam, Gang Keluarga 3, Tenggarong, Kutai Kartanegara</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>122</v>
@@ -4877,16 +4898,16 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
@@ -4898,20 +4919,20 @@
         <v>23</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>122</v>
@@ -4934,16 +4955,16 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
@@ -4955,20 +4976,20 @@
         <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>122</v>
@@ -4990,74 +5011,74 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="6" t="str">
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="P10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
@@ -5069,20 +5090,20 @@
         <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Padat Karya, Gang Kaganangan, RT 73, No. 171, Loa Bakung, Samarinda</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>129</v>
@@ -5105,16 +5126,16 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -5126,20 +5147,20 @@
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. KH. Mas Mansyur, Perum. Batu Penggal, Blok A, No. 10, RT 1, Kel. Loa Bakung, Kec. Sungai Kunjang</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>122</v>
@@ -5162,16 +5183,16 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -5183,20 +5204,20 @@
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Keledang Mas Baru, BS 27, Samarinda Seberang, Samarinda</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>122</v>
@@ -5219,16 +5240,16 @@
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
@@ -5240,20 +5261,20 @@
         <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Sukun, RT 25/005, Loa Duri Ilir, Kec. Loa Janan, Kab. Kukar</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>122</v>
@@ -5276,16 +5297,16 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>
@@ -5302,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>122</v>
@@ -5331,16 +5352,16 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
@@ -5352,20 +5373,20 @@
         <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Borneo, RT 24, Kel. Simpang Pasir, Palaran</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>129</v>
@@ -5388,16 +5409,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>37</v>
@@ -5409,20 +5430,20 @@
         <v>23</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Desa Sidomulyo, RT 10, No. 20, Kec. Anggana, Kab. Kukar, Kaltim</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>122</v>
@@ -5445,16 +5466,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>37</v>
@@ -5466,20 +5487,20 @@
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ulaq Nanga, Gang Melati</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>122</v>
@@ -5502,16 +5523,16 @@
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
@@ -5523,20 +5544,20 @@
         <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Karet, Blok F, RT 29, Loa Janan Ulu</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>122</v>
@@ -5559,16 +5580,16 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
@@ -5580,20 +5601,20 @@
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Perum. Apel Biru Hill, Blok AZ, No. 9, Jln. Jakarta, Loa Bakung, Samarinda</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>40</v>
@@ -5616,16 +5637,16 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
@@ -5637,20 +5658,20 @@
         <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Bung Tomo, Perum Keledang Mas Baru, blok BS no 21, RT 20, Kec. Samarinda Seberang, Kel. Sungai Keledang</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>122</v>
@@ -5673,16 +5694,16 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>22</v>
@@ -5694,20 +5715,20 @@
         <v>23</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Loa Pari, RT 4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>122</v>
@@ -5730,16 +5751,16 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>37</v>
@@ -5751,19 +5772,19 @@
         <v>23</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>79</v>
@@ -5785,70 +5806,70 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="30" t="s">
-        <v>443</v>
+      <c r="A25" s="46" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="46" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="23" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="46" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="26" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5953,16 +5974,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -5974,20 +5995,20 @@
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I18" si="0">H2</f>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>122</v>
@@ -5996,7 +6017,7 @@
         <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>31</v>
@@ -6010,16 +6031,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -6031,20 +6052,20 @@
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>122</v>
@@ -6053,7 +6074,7 @@
         <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>31</v>
@@ -6067,16 +6088,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" t="s">
         <v>268</v>
-      </c>
-      <c r="D4" t="s">
-        <v>269</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -6088,20 +6109,20 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K4" t="s">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
@@ -6110,7 +6131,7 @@
         <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
@@ -6124,16 +6145,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
         <v>273</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" t="s">
         <v>275</v>
-      </c>
-      <c r="D5" t="s">
-        <v>276</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -6145,20 +6166,20 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mugirejo RT 10 Kelurahan Mugirejo</v>
       </c>
       <c r="J5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M5" t="s">
         <v>129</v>
@@ -6167,7 +6188,7 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
@@ -6181,16 +6202,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
         <v>280</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" t="s">
         <v>282</v>
-      </c>
-      <c r="D6" t="s">
-        <v>283</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -6202,20 +6223,20 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta 2 RT 81 Kelurahan Loa Bakung</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M6" t="s">
         <v>122</v>
@@ -6224,7 +6245,7 @@
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
@@ -6238,16 +6259,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" t="s">
         <v>287</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" t="s">
         <v>289</v>
-      </c>
-      <c r="D7" t="s">
-        <v>290</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -6259,20 +6280,20 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Slamet Riyadi RT 14 Kelurahan Teluk Lerong Ulu</v>
       </c>
       <c r="J7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M7" t="s">
         <v>122</v>
@@ -6281,7 +6302,7 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P7" t="s">
         <v>31</v>
@@ -6295,16 +6316,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
         <v>294</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" t="s">
         <v>296</v>
-      </c>
-      <c r="D8" t="s">
-        <v>297</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -6316,20 +6337,20 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Gerbang Dayaku RT 24 Kelurahan Loa Duri Ilir</v>
       </c>
       <c r="J8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M8" t="s">
         <v>122</v>
@@ -6338,7 +6359,7 @@
         <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -6352,16 +6373,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
         <v>301</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>303</v>
-      </c>
-      <c r="D9" t="s">
-        <v>304</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -6373,20 +6394,20 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Diponegoro RT 8 Desa Sidomulyo</v>
       </c>
       <c r="J9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K9" t="s">
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M9" t="s">
         <v>122</v>
@@ -6395,7 +6416,7 @@
         <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P9" t="s">
         <v>31</v>
@@ -6409,16 +6430,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
         <v>308</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" t="s">
         <v>310</v>
-      </c>
-      <c r="D10" t="s">
-        <v>311</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -6430,20 +6451,20 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mubasyirot RT 29 Kelurahan Loa Janan Ulu</v>
       </c>
       <c r="J10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M10" t="s">
         <v>122</v>
@@ -6452,7 +6473,7 @@
         <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P10" t="s">
         <v>31</v>
@@ -6466,16 +6487,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" t="s">
         <v>315</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" t="s">
         <v>317</v>
-      </c>
-      <c r="D11" t="s">
-        <v>318</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -6487,20 +6508,20 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>Jl. KH Mas Mansyur RT 18 Kelurahan Loa Bakung</v>
       </c>
       <c r="J11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K11" t="s">
         <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M11" t="s">
         <v>122</v>
@@ -6509,7 +6530,7 @@
         <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P11" t="s">
         <v>31</v>
@@ -6523,16 +6544,16 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
@@ -6544,20 +6565,20 @@
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RT 12 Desa Sidomulyo Kecamatan Anggana</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>122</v>
@@ -6566,7 +6587,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>31</v>
@@ -6580,16 +6601,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" t="s">
         <v>330</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" t="s">
         <v>332</v>
-      </c>
-      <c r="D13" t="s">
-        <v>333</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
@@ -6601,20 +6622,20 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Revolusi RT 6 Kelurahan Lok Bahu</v>
       </c>
       <c r="J13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K13" t="s">
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M13" t="s">
         <v>122</v>
@@ -6623,7 +6644,7 @@
         <v>29</v>
       </c>
       <c r="O13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P13" t="s">
         <v>31</v>
@@ -6637,16 +6658,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
         <v>337</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" t="s">
         <v>339</v>
-      </c>
-      <c r="D14" t="s">
-        <v>340</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -6658,20 +6679,20 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Raudah RT 20 Kelurahan Teluk Lerong Ilir</v>
       </c>
       <c r="J14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K14" t="s">
         <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M14" t="s">
         <v>129</v>
@@ -6680,7 +6701,7 @@
         <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P14" t="s">
         <v>31</v>
@@ -6694,16 +6715,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
@@ -6715,20 +6736,20 @@
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>122</v>
@@ -6737,7 +6758,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>31</v>
@@ -6751,16 +6772,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
@@ -6772,20 +6793,20 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>122</v>
@@ -6794,7 +6815,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>31</v>
@@ -6808,16 +6829,16 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
@@ -6829,20 +6850,20 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok S Kelurahan Loa Bakung</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>122</v>
@@ -6851,13 +6872,13 @@
         <v>29</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>32</v>
@@ -6865,16 +6886,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -6886,35 +6907,35 @@
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. KS. Tubun Dalam, Gg. Wiratirta, RT 17, No. 26, Samarinda, Kaltim</v>
       </c>
       <c r="J18" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N18" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>32</v>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CB90D-1DD1-464C-BFB8-32965ECD87D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2BA48-495F-4DE3-9E19-449B21F8191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -1753,12 +1753,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1920,26 +1927,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,70 +1955,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2290,9 +2300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A32" sqref="A32"/>
+      <selection pane="topRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2325,64 +2335,64 @@
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="43" t="s">
         <v>418</v>
       </c>
     </row>
@@ -2400,7 +2410,7 @@
       <c r="E2" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <v>4</v>
       </c>
       <c r="G2" s="34" t="s">
@@ -2431,13 +2441,13 @@
       <c r="O2" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="35"/>
@@ -2460,7 +2470,7 @@
       <c r="E3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>2</v>
       </c>
       <c r="G3" s="34" t="s">
@@ -2491,13 +2501,13 @@
       <c r="O3" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="34"/>
@@ -2520,7 +2530,7 @@
       <c r="E4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>2</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -2549,13 +2559,13 @@
       <c r="O4" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S4" s="34"/>
@@ -2578,7 +2588,7 @@
       <c r="E5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>1</v>
       </c>
       <c r="G5" s="34" t="s">
@@ -2609,13 +2619,13 @@
       <c r="O5" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S5" s="34"/>
@@ -2638,7 +2648,7 @@
       <c r="E6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>3</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -2669,13 +2679,13 @@
       <c r="O6" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="34"/>
@@ -2698,7 +2708,7 @@
       <c r="E7" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="34" t="s">
@@ -2727,13 +2737,13 @@
       <c r="O7" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S7" s="35"/>
@@ -2756,7 +2766,7 @@
       <c r="E8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>1</v>
       </c>
       <c r="G8" s="34" t="s">
@@ -2786,13 +2796,13 @@
         <v>081515877493</v>
       </c>
       <c r="O8" s="34"/>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="34"/>
@@ -2815,7 +2825,7 @@
       <c r="E9" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>3</v>
       </c>
       <c r="G9" s="34" t="s">
@@ -2844,13 +2854,13 @@
       <c r="O9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S9" s="35"/>
@@ -2873,7 +2883,7 @@
       <c r="E10" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>3</v>
       </c>
       <c r="G10" s="34" t="s">
@@ -2904,13 +2914,13 @@
       <c r="O10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S10" s="35"/>
@@ -2929,7 +2939,7 @@
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="45"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="34" t="s">
         <v>23</v>
       </c>
@@ -2944,13 +2954,13 @@
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="34"/>
@@ -2967,7 +2977,7 @@
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="34" t="s">
         <v>23</v>
       </c>
@@ -2982,13 +2992,13 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="45" t="s">
+      <c r="Q12" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="R12" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S12" s="34"/>
@@ -3009,7 +3019,7 @@
       <c r="E13" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>1</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -3040,13 +3050,13 @@
       <c r="O13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="45" t="s">
+      <c r="Q13" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S13" s="34"/>
@@ -3069,7 +3079,7 @@
       <c r="E14" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>5</v>
       </c>
       <c r="G14" s="34" t="s">
@@ -3098,13 +3108,13 @@
       <c r="O14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="45" t="s">
+      <c r="Q14" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S14" s="35"/>
@@ -3127,7 +3137,7 @@
       <c r="E15" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <v>1</v>
       </c>
       <c r="G15" s="34" t="s">
@@ -3158,13 +3168,13 @@
       <c r="O15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="45" t="s">
+      <c r="P15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="35"/>
@@ -3187,7 +3197,7 @@
       <c r="E16" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <v>2</v>
       </c>
       <c r="G16" s="34" t="s">
@@ -3218,13 +3228,13 @@
       <c r="O16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="45" t="s">
+      <c r="Q16" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S16" s="35"/>
@@ -3247,7 +3257,7 @@
       <c r="E17" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <v>1</v>
       </c>
       <c r="G17" s="34" t="s">
@@ -3278,13 +3288,13 @@
       <c r="O17" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S17" s="35"/>
@@ -3307,7 +3317,7 @@
       <c r="E18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <v>1</v>
       </c>
       <c r="G18" s="34" t="s">
@@ -3336,13 +3346,13 @@
       <c r="O18" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="45" t="s">
+      <c r="P18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="45" t="s">
+      <c r="Q18" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S18" s="34"/>
@@ -3365,7 +3375,7 @@
       <c r="E19" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <v>3</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -3396,13 +3406,13 @@
       <c r="O19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="45" t="s">
+      <c r="Q19" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S19" s="35"/>
@@ -3421,7 +3431,7 @@
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="34" t="s">
         <v>23</v>
       </c>
@@ -3436,13 +3446,13 @@
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
-      <c r="P20" s="45" t="s">
+      <c r="P20" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R20" s="45" t="s">
+      <c r="R20" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="35"/>
@@ -3463,7 +3473,7 @@
       <c r="E21" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="44">
         <v>2</v>
       </c>
       <c r="G21" s="34" t="s">
@@ -3494,13 +3504,13 @@
       <c r="O21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="45" t="s">
+      <c r="P21" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q21" s="45" t="s">
+      <c r="Q21" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R21" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S21" s="35"/>
@@ -3510,7 +3520,7 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="50" t="s">
         <v>550</v>
       </c>
       <c r="B22" s="33"/>
@@ -3519,7 +3529,7 @@
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="34" t="s">
         <v>23</v>
       </c>
@@ -3533,13 +3543,13 @@
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
-      <c r="P22" s="45" t="s">
+      <c r="P22" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="45" t="s">
+      <c r="Q22" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="R22" s="45" t="s">
+      <c r="R22" s="44" t="s">
         <v>31</v>
       </c>
       <c r="S22" s="34"/>
@@ -3601,7 +3611,7 @@
       <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="49" t="s">
         <v>475</v>
       </c>
       <c r="B34" s="31"/>
@@ -3679,9 +3689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3769,7 +3779,7 @@
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -3883,7 +3893,7 @@
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -3940,7 +3950,7 @@
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3997,7 +4007,7 @@
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -4054,7 +4064,7 @@
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -4413,27 +4423,27 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4448,7 +4458,7 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4672,7 +4682,7 @@
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4726,10 +4736,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -4786,7 +4796,7 @@
       <c r="A6" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4843,7 +4853,7 @@
       <c r="A7" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>146</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -5806,7 +5816,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="45" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5816,7 +5826,7 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5836,7 +5846,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="45" t="s">
         <v>448</v>
       </c>
     </row>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2BA48-495F-4DE3-9E19-449B21F8191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F8A92-F8E2-446D-B872-93B32E2BB43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12375" yWindow="-6540" windowWidth="11520" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -2300,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A34" sqref="A34"/>
     </sheetView>
@@ -4480,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F8A92-F8E2-446D-B872-93B32E2BB43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5152D8B5-B499-4076-A975-194D76845439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12375" yWindow="-6540" windowWidth="11520" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -1753,12 +1753,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1930,23 +1937,23 @@
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,73 +1962,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2300,9 +2307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A34" sqref="A34"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3520,7 +3527,7 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>550</v>
       </c>
       <c r="B22" s="33"/>
@@ -3599,7 +3606,7 @@
       <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="50" t="s">
         <v>473</v>
       </c>
       <c r="B32" s="31"/>
@@ -3611,7 +3618,7 @@
       <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>475</v>
       </c>
       <c r="B34" s="31"/>
@@ -3635,7 +3642,7 @@
       <c r="B37" s="31"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="50" t="s">
         <v>479</v>
       </c>
       <c r="B38" s="31"/>
@@ -3647,7 +3654,7 @@
       <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="50" t="s">
         <v>481</v>
       </c>
       <c r="B40" s="31"/>
@@ -3671,7 +3678,7 @@
       <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="50" t="s">
         <v>485</v>
       </c>
       <c r="B44" s="30"/>
@@ -3691,7 +3698,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4443,12 +4450,12 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="50" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4458,7 +4465,7 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="50" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4480,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5152D8B5-B499-4076-A975-194D76845439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909DDC5F-2918-4AF4-84D4-60D2FACFF2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1560" windowWidth="13185" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="593">
   <si>
     <t>nama santri</t>
   </si>
@@ -1608,145 +1608,211 @@
     <t>082148689206</t>
   </si>
   <si>
+    <t>Samarinda, 18 Juni 2011</t>
+  </si>
+  <si>
+    <t>Jalan Gelatik 1, Blok B, RT 13, No 9, Kelurahan Temindung Permai, Kecamatan Sungai Pinang, Samarinda, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Staf TU</t>
+  </si>
+  <si>
+    <t>085246205524</t>
+  </si>
+  <si>
+    <t>6472085806110002</t>
+  </si>
+  <si>
+    <t>Samarinda, 22 Februari 2011</t>
+  </si>
+  <si>
+    <t>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</t>
+  </si>
+  <si>
+    <t>Andriadi</t>
+  </si>
+  <si>
+    <t>082350416888</t>
+  </si>
+  <si>
+    <t>Herlina</t>
+  </si>
+  <si>
+    <t>081250259199</t>
+  </si>
+  <si>
+    <t>6472042202110004</t>
+  </si>
+  <si>
+    <t>Samarinda, 12 Mei 2011</t>
+  </si>
+  <si>
+    <t>Desa Senyiur</t>
+  </si>
+  <si>
+    <t>Edi Rachman</t>
+  </si>
+  <si>
+    <t>081351407060</t>
+  </si>
+  <si>
+    <t>Yunita Vitaloka</t>
+  </si>
+  <si>
+    <t>081351254741</t>
+  </si>
+  <si>
+    <t>6408011205110001</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 April 2011</t>
+  </si>
+  <si>
+    <t>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</t>
+  </si>
+  <si>
+    <t>Roni Muharsyah</t>
+  </si>
+  <si>
+    <t>081515877493</t>
+  </si>
+  <si>
+    <t>Sari Kurniawati</t>
+  </si>
+  <si>
+    <t>6402036604110001</t>
+  </si>
+  <si>
+    <t>Wildan Akhram Pratama</t>
+  </si>
+  <si>
+    <t>23.02.071</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 Maret 2010</t>
+  </si>
+  <si>
+    <t>Simpang Tiga, Loa Janan Ilir, RT 10</t>
+  </si>
+  <si>
+    <t>Suparji</t>
+  </si>
+  <si>
+    <t>081347716701</t>
+  </si>
+  <si>
+    <t>Sukatmi</t>
+  </si>
+  <si>
+    <t>6472025304990003</t>
+  </si>
+  <si>
+    <t>081222240832</t>
+  </si>
+  <si>
+    <t>6472031103110001</t>
+  </si>
+  <si>
+    <t>Samarinda, 11 Maret 2011</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 September 2011</t>
+  </si>
+  <si>
+    <t>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>M Agus Kastiawan</t>
+  </si>
+  <si>
+    <t>Guru ASN</t>
+  </si>
+  <si>
+    <t>Halimatus Sa'diyah</t>
+  </si>
+  <si>
+    <t>085250464198</t>
+  </si>
+  <si>
+    <t>6472056809110001</t>
+  </si>
+  <si>
+    <t>nisn</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>Hazwan Hafizuddin</t>
+  </si>
+  <si>
+    <t>6402034307100001</t>
+  </si>
+  <si>
+    <t>6472061111090006</t>
+  </si>
+  <si>
+    <t>6472073101100002</t>
+  </si>
+  <si>
+    <t>6472030210100002</t>
+  </si>
+  <si>
+    <t>6472050403100005</t>
+  </si>
+  <si>
+    <t>6472020805090003</t>
+  </si>
+  <si>
+    <t>6402036308090003</t>
+  </si>
+  <si>
+    <t>6472067112090002</t>
+  </si>
+  <si>
+    <t>6472052802100001</t>
+  </si>
+  <si>
+    <t>6472024108090003</t>
+  </si>
+  <si>
+    <t>6472052112080004</t>
+  </si>
+  <si>
+    <t>6402161504090001</t>
+  </si>
+  <si>
+    <t>6402060410080002</t>
+  </si>
+  <si>
+    <t>6472031901080002</t>
+  </si>
+  <si>
+    <t>6402036011080002</t>
+  </si>
+  <si>
+    <t>6402044505090002</t>
+  </si>
+  <si>
+    <t>6472036612000004</t>
+  </si>
+  <si>
+    <t>6402037006080005</t>
+  </si>
+  <si>
+    <t>3315081502080001</t>
+  </si>
+  <si>
+    <t>3518135304000002</t>
+  </si>
+  <si>
     <t>6402131606100002</t>
   </si>
   <si>
-    <t>Samarinda, 18 Juni 2011</t>
-  </si>
-  <si>
-    <t>Jalan Gelatik 1, Blok B, RT 13, No 9, Kelurahan Temindung Permai, Kecamatan Sungai Pinang, Samarinda, Kalimantan Timur</t>
-  </si>
-  <si>
-    <t>Staf TU</t>
-  </si>
-  <si>
-    <t>085246205524</t>
-  </si>
-  <si>
-    <t>6472085806110002</t>
-  </si>
-  <si>
-    <t>Samarinda, 22 Februari 2011</t>
-  </si>
-  <si>
-    <t>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</t>
-  </si>
-  <si>
-    <t>Andriadi</t>
-  </si>
-  <si>
-    <t>082350416888</t>
-  </si>
-  <si>
-    <t>Herlina</t>
-  </si>
-  <si>
-    <t>081250259199</t>
-  </si>
-  <si>
-    <t>6472042202110004</t>
-  </si>
-  <si>
-    <t>Samarinda, 12 Mei 2011</t>
-  </si>
-  <si>
-    <t>Desa Senyiur</t>
-  </si>
-  <si>
-    <t>Edi Rachman</t>
-  </si>
-  <si>
-    <t>081351407060</t>
-  </si>
-  <si>
-    <t>Yunita Vitaloka</t>
-  </si>
-  <si>
-    <t>081351254741</t>
-  </si>
-  <si>
-    <t>6408011205110001</t>
-  </si>
-  <si>
-    <t>Samarinda, 28 April 2011</t>
-  </si>
-  <si>
-    <t>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</t>
-  </si>
-  <si>
-    <t>Roni Muharsyah</t>
-  </si>
-  <si>
-    <t>081515877493</t>
-  </si>
-  <si>
-    <t>Sari Kurniawati</t>
-  </si>
-  <si>
-    <t>6402036604110001</t>
-  </si>
-  <si>
-    <t>Wildan Akhram Pratama</t>
-  </si>
-  <si>
-    <t>23.02.071</t>
-  </si>
-  <si>
-    <t>Samarinda, 28 Maret 2010</t>
-  </si>
-  <si>
-    <t>Simpang Tiga, Loa Janan Ilir, RT 10</t>
-  </si>
-  <si>
-    <t>Suparji</t>
-  </si>
-  <si>
-    <t>081347716701</t>
-  </si>
-  <si>
-    <t>Sukatmi</t>
-  </si>
-  <si>
-    <t>6472025304990003</t>
-  </si>
-  <si>
-    <t>081222240832</t>
-  </si>
-  <si>
-    <t>6472031103110001</t>
-  </si>
-  <si>
-    <t>Samarinda, 11 Maret 2011</t>
-  </si>
-  <si>
-    <t>Samarinda, 28 September 2011</t>
-  </si>
-  <si>
-    <t>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</t>
-  </si>
-  <si>
-    <t>M Agus Kastiawan</t>
-  </si>
-  <si>
-    <t>Guru ASN</t>
-  </si>
-  <si>
-    <t>Halimatus Sa'diyah</t>
-  </si>
-  <si>
-    <t>085250464198</t>
-  </si>
-  <si>
-    <t>6472056809110001</t>
-  </si>
-  <si>
-    <t>nisn</t>
-  </si>
-  <si>
-    <t>nis</t>
-  </si>
-  <si>
-    <t>Hazwan Hafizuddin</t>
+    <t>6402162605090001</t>
+  </si>
+  <si>
+    <t>6472052305090001</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +2000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2024,11 +2090,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,9 +2376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2343,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>568</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>569</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>3</v>
@@ -2472,7 +2541,7 @@
         <v>393</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>37</v>
@@ -2484,29 +2553,29 @@
         <v>23</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I3" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>125</v>
       </c>
       <c r="L3" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>566</v>
-      </c>
       <c r="O3" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>29</v>
@@ -2520,7 +2589,7 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2650,7 +2719,7 @@
         <v>396</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>37</v>
@@ -2662,7 +2731,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I6" s="34" t="str">
         <f t="shared" si="0"/>
@@ -2675,13 +2744,13 @@
         <v>98</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M6" s="34" t="s">
         <v>103</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O6" s="34" t="s">
         <v>129</v>
@@ -2698,7 +2767,7 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2768,7 +2837,7 @@
         <v>398</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>37</v>
@@ -2780,23 +2849,23 @@
         <v>23</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I8" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>546</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>547</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N8" s="34" t="str">
         <f>K8</f>
@@ -2815,7 +2884,7 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2827,7 +2896,7 @@
         <v>399</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>426</v>
@@ -2839,23 +2908,23 @@
         <v>23</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
       </c>
       <c r="J9" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>554</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>555</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N9" s="34"/>
       <c r="O9" s="34" t="s">
@@ -2873,7 +2942,7 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2885,7 +2954,7 @@
         <v>400</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>426</v>
@@ -2916,7 +2985,7 @@
         <v>271</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>40</v>
@@ -2933,11 +3002,11 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="51" t="s">
         <v>383</v>
       </c>
       <c r="B11" s="18"/>
@@ -3139,7 +3208,7 @@
         <v>405</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>426</v>
@@ -3151,26 +3220,26 @@
         <v>23</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
       </c>
       <c r="J15" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="K15" s="35" t="s">
         <v>532</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>533</v>
       </c>
       <c r="L15" s="34" t="s">
         <v>327</v>
       </c>
       <c r="M15" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="N15" s="35" t="s">
         <v>534</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>535</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>28</v>
@@ -3187,7 +3256,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3199,7 +3268,7 @@
         <v>406</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>426</v>
@@ -3211,26 +3280,26 @@
         <v>23</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Desa Senyiur</v>
       </c>
       <c r="J16" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="K16" s="35" t="s">
         <v>539</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>540</v>
       </c>
       <c r="L16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="N16" s="35" t="s">
         <v>541</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>542</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>28</v>
@@ -3247,7 +3316,7 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3429,7 +3498,7 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="51" t="s">
         <v>374</v>
       </c>
       <c r="B20" s="32"/>
@@ -3523,16 +3592,16 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="49" t="s">
-        <v>550</v>
+      <c r="A22" s="51" t="s">
+        <v>549</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -3606,7 +3675,7 @@
       <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="49" t="s">
         <v>473</v>
       </c>
       <c r="B32" s="31"/>
@@ -3618,7 +3687,7 @@
       <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="49" t="s">
         <v>475</v>
       </c>
       <c r="B34" s="31"/>
@@ -3642,7 +3711,7 @@
       <c r="B37" s="31"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="49" t="s">
         <v>479</v>
       </c>
       <c r="B38" s="31"/>
@@ -3654,7 +3723,7 @@
       <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="49" t="s">
         <v>481</v>
       </c>
       <c r="B40" s="31"/>
@@ -3678,7 +3747,7 @@
       <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="49" t="s">
         <v>485</v>
       </c>
       <c r="B44" s="30"/>
@@ -3696,9 +3765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3838,6 +3907,9 @@
       <c r="R2" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S2" s="12" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="10" t="s">
@@ -3895,6 +3967,9 @@
       <c r="R3" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S3" s="12" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
@@ -4009,6 +4084,9 @@
       <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S5" s="12" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
@@ -4066,6 +4144,9 @@
       <c r="R6" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S6" s="12" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
@@ -4123,6 +4204,9 @@
       <c r="R7" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S7" s="12" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
@@ -4180,6 +4264,9 @@
       <c r="R8" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S8" s="12" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
@@ -4237,6 +4324,9 @@
       <c r="R9" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S9" s="12" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
@@ -4294,6 +4384,9 @@
       <c r="R10" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S10" s="12" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
@@ -4351,6 +4444,9 @@
       <c r="R11" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="S11" s="12" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
@@ -4407,6 +4503,9 @@
       </c>
       <c r="R12" s="12" t="s">
         <v>32</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75">
@@ -4450,12 +4549,12 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4465,7 +4564,7 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4487,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4744,7 +4843,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>131</v>
@@ -5826,34 +5925,52 @@
       <c r="A25" s="45" t="s">
         <v>442</v>
       </c>
+      <c r="B25" s="16" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="50" t="s">
         <v>443</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="45" t="s">
         <v>444</v>
       </c>
+      <c r="B27" s="16" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="23" t="s">
         <v>445</v>
       </c>
+      <c r="B28" s="16" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="23" t="s">
         <v>446</v>
       </c>
+      <c r="B29" s="16" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="50" t="s">
         <v>447</v>
       </c>
+      <c r="B30" s="16" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="50" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5861,32 +5978,50 @@
       <c r="A32" s="23" t="s">
         <v>449</v>
       </c>
+      <c r="B32" s="16" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="23" t="s">
         <v>450</v>
       </c>
+      <c r="B33" s="16" t="s">
+        <v>589</v>
+      </c>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="23" t="s">
         <v>451</v>
       </c>
+      <c r="B34" s="16" t="s">
+        <v>585</v>
+      </c>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="23" t="s">
         <v>452</v>
       </c>
+      <c r="B35" s="16" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="23" t="s">
         <v>453</v>
       </c>
+      <c r="B36" s="16" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="26" t="s">
         <v>454</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909DDC5F-2918-4AF4-84D4-60D2FACFF2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E57D511-E18E-4CEA-AB3C-3D4194526FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1560" windowWidth="13185" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
     <sheet name="2022" sheetId="3" r:id="rId2"/>
     <sheet name="2021" sheetId="2" r:id="rId3"/>
     <sheet name="2020" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="605">
   <si>
     <t>nama santri</t>
   </si>
@@ -1813,13 +1814,49 @@
   </si>
   <si>
     <t>6472052305090001</t>
+  </si>
+  <si>
+    <t>6472052008110001</t>
+  </si>
+  <si>
+    <t>6472032004100006</t>
+  </si>
+  <si>
+    <t>6472091901110001</t>
+  </si>
+  <si>
+    <t>6472064904110005</t>
+  </si>
+  <si>
+    <t>Data Nomor Induk Keluarga</t>
+  </si>
+  <si>
+    <t>Santri Madrasah Al-Qur'an Baitul Izzah Samarinda</t>
+  </si>
+  <si>
+    <t>Kelas 1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nama Lengkap</t>
+  </si>
+  <si>
+    <t>Nomor NIK</t>
+  </si>
+  <si>
+    <t>WILDAN AKHRAM PRATAMA</t>
+  </si>
+  <si>
+    <t>ARVIANDOW FEBRIANSYAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1933,6 +1970,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2000,7 +2050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2098,6 +2148,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2376,9 +2456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T26" sqref="T26"/>
+      <selection pane="topRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3041,7 +3121,9 @@
       </c>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
+      <c r="U11" s="35" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="38" t="s">
@@ -3079,7 +3161,9 @@
       </c>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
+      <c r="U12" s="35" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="41" t="s">
@@ -3533,7 +3617,9 @@
       </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
-      <c r="U20" s="34"/>
+      <c r="U20" s="35" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="42" t="s">
@@ -3630,7 +3716,9 @@
       </c>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
+      <c r="U22" s="35" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="31" t="s">
@@ -3767,7 +3855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S15" sqref="S15"/>
+      <selection pane="topRight" activeCell="S12" sqref="S2:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4586,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7110,4 +7198,709 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C95852-DA7B-4CD7-803F-D000A96CAA00}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="52" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" style="52" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="52" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1">
+      <c r="A4" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1">
+      <c r="A5" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>601</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>601</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>601</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1">
+      <c r="A6" s="53">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>490</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="53">
+        <v>1</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="53">
+        <v>1</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>604</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="A7" s="53">
+        <v>2</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="53">
+        <v>2</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="53">
+        <v>2</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1">
+      <c r="A8" s="53">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="53">
+        <v>3</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="53">
+        <v>3</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>444</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="A9" s="53">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="53">
+        <v>4</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>572</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="53">
+        <v>4</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="A10" s="53">
+        <v>5</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="53">
+        <v>5</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>571</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="53">
+        <v>5</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>446</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="A11" s="53">
+        <v>6</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="53">
+        <v>6</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="53">
+        <v>6</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>447</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="A12" s="53">
+        <v>7</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="53">
+        <v>7</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="53">
+        <v>7</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="53">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="53">
+        <v>8</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="53">
+        <v>8</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>449</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1">
+      <c r="A14" s="53">
+        <v>9</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="53">
+        <v>9</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>463</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="53">
+        <v>9</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1">
+      <c r="A15" s="53">
+        <v>10</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="53">
+        <v>10</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="53">
+        <v>10</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="K15" s="59" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1">
+      <c r="A16" s="53">
+        <v>11</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>596</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="53">
+        <v>11</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>579</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="53">
+        <v>11</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>452</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1">
+      <c r="A17" s="53">
+        <v>12</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="53">
+        <v>12</v>
+      </c>
+      <c r="F17" s="61"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="53">
+        <v>12</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1">
+      <c r="A18" s="53">
+        <v>13</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="53">
+        <v>13</v>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="53">
+        <v>13</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>454</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1">
+      <c r="A19" s="53">
+        <v>14</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="53">
+        <v>14</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="53">
+        <v>14</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" customHeight="1">
+      <c r="A20" s="53">
+        <v>15</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="53">
+        <v>15</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="53">
+        <v>15</v>
+      </c>
+      <c r="J20" s="61"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" customHeight="1">
+      <c r="A21" s="53">
+        <v>16</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="53">
+        <v>16</v>
+      </c>
+      <c r="F21" s="61"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="53">
+        <v>16</v>
+      </c>
+      <c r="J21" s="61"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" customHeight="1">
+      <c r="A22" s="53">
+        <v>17</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="53">
+        <v>17</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="53">
+        <v>17</v>
+      </c>
+      <c r="J22" s="61"/>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:11" ht="18" customHeight="1">
+      <c r="A23" s="53">
+        <v>18</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="53">
+        <v>18</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="53">
+        <v>18</v>
+      </c>
+      <c r="J23" s="61"/>
+      <c r="K23" s="58"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" customHeight="1">
+      <c r="A24" s="53">
+        <v>19</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>603</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="53">
+        <v>19</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="53">
+        <v>19</v>
+      </c>
+      <c r="J24" s="61"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1">
+      <c r="A25" s="53">
+        <v>20</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="53">
+        <v>20</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="53">
+        <v>20</v>
+      </c>
+      <c r="J25" s="61"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" customHeight="1">
+      <c r="A26" s="53">
+        <v>21</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="53">
+        <v>21</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="53">
+        <v>21</v>
+      </c>
+      <c r="J26" s="61"/>
+      <c r="K26" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E57D511-E18E-4CEA-AB3C-3D4194526FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD08B8E-290D-4ADD-9371-4365C723E296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2022" sheetId="3" r:id="rId2"/>
     <sheet name="2021" sheetId="2" r:id="rId3"/>
     <sheet name="2020" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="NIK" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="610">
   <si>
     <t>nama santri</t>
   </si>
@@ -1363,21 +1363,9 @@
     <t>6472026809100001</t>
   </si>
   <si>
-    <t>ARVIANDOW</t>
-  </si>
-  <si>
     <t>AYATURRAHMAN SHINRA AUFA</t>
   </si>
   <si>
-    <t>HAZWAN HAFIDZUDIN</t>
-  </si>
-  <si>
-    <t>KHALID GHAZY</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RADJA</t>
-  </si>
-  <si>
     <t>MUHAMMAD RAYHAN</t>
   </si>
   <si>
@@ -1393,51 +1381,27 @@
     <t>NAYLA IZZATUL HASANAH</t>
   </si>
   <si>
-    <t>NIDA KHALWATUS S</t>
-  </si>
-  <si>
     <t>SAFARAZ AUFA RIFDAH</t>
   </si>
   <si>
-    <t>WALDAN FAIQ HASAN</t>
-  </si>
-  <si>
     <t>AKMAL AL JUNDI</t>
   </si>
   <si>
-    <t>ALYA ZULFA RAMADHANI</t>
-  </si>
-  <si>
     <t>IDRIS</t>
   </si>
   <si>
-    <t>MUHAMMAD AL FAHREZY</t>
-  </si>
-  <si>
     <t>MUHAMMAD FAISAL ASY SYAMS</t>
   </si>
   <si>
     <t>MUHAMMAD FAKHRI</t>
   </si>
   <si>
-    <t>MUHAMMAD JAMEL ASY SYAHID</t>
-  </si>
-  <si>
-    <t>NAJWA QURROTA'AINI</t>
-  </si>
-  <si>
     <t>NUR INTAN AMIRAH SHAFIQH</t>
   </si>
   <si>
-    <t>RUWAYFI RAFA ALHAMDANI</t>
-  </si>
-  <si>
     <t>SEKAR ARUM WIJAYANTI</t>
   </si>
   <si>
-    <t>AHMAD ABDULLAH KHOLIS</t>
-  </si>
-  <si>
     <t>AIKO ZAHWA SYAROFANA</t>
   </si>
   <si>
@@ -1456,9 +1420,6 @@
     <t>AUDREY CALLYSTA FATIH</t>
   </si>
   <si>
-    <t>HANIF SYAIFULLAH</t>
-  </si>
-  <si>
     <t>IFROYIM HABIBULLAH FATAH</t>
   </si>
   <si>
@@ -1486,9 +1447,6 @@
     <t>SYIFA SALSABILA</t>
   </si>
   <si>
-    <t>WILDAN HABIBI ARIYADI</t>
-  </si>
-  <si>
     <t>ZIDANE AL ASYTAR SYAKUR</t>
   </si>
   <si>
@@ -1850,13 +1808,70 @@
   </si>
   <si>
     <t>ARVIANDOW FEBRIANSYAH</t>
+  </si>
+  <si>
+    <t>6402130712080002</t>
+  </si>
+  <si>
+    <t>HAZWAN HAFIZUDDIN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RADJA MAHESA PAHLEVI</t>
+  </si>
+  <si>
+    <t>AHMAD ABDULLAH KHOLISH</t>
+  </si>
+  <si>
+    <t>HANIF SYAIFULLOH</t>
+  </si>
+  <si>
+    <t>WILDHAN HABIBI ARIYADI</t>
+  </si>
+  <si>
+    <t>RUWAYFI RAFFA ALHAMDANI</t>
+  </si>
+  <si>
+    <t>NAJWA QURROTA AINI</t>
+  </si>
+  <si>
+    <t>6472020204100001</t>
+  </si>
+  <si>
+    <t>KHALID GHAZY MURTADHO</t>
+  </si>
+  <si>
+    <t>NIDA KHALWATUS SYAHIDAH</t>
+  </si>
+  <si>
+    <t>WALDAN FA'IQ HASAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AL'PAHREZY</t>
+  </si>
+  <si>
+    <t>ALYA' ZULFA RAMADHANI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JAMIL ASY SYAHID</t>
+  </si>
+  <si>
+    <t>Iskandar, S.Pd</t>
+  </si>
+  <si>
+    <t>Kepala Madrasah</t>
+  </si>
+  <si>
+    <t>Mengetahui,</t>
+  </si>
+  <si>
+    <t>'6402162605090001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1983,6 +1998,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2050,7 +2073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2161,23 +2184,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2194,6 +2223,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2181225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394220B0-2A27-4BDE-8CC0-9D32D1056A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="0"/>
+          <a:ext cx="904875" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2456,9 +2540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2492,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>3</v>
@@ -2561,7 +2645,7 @@
         <v>392</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>426</v>
@@ -2573,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="I2" s="34" t="str">
         <f t="shared" ref="I2:I21" si="0">H2</f>
@@ -2592,7 +2676,7 @@
         <v>278</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>129</v>
@@ -2601,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R2" s="44" t="s">
         <v>31</v>
@@ -2609,7 +2693,7 @@
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
       <c r="U2" s="35" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2621,7 +2705,7 @@
         <v>393</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>37</v>
@@ -2633,35 +2717,35 @@
         <v>23</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="I3" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>125</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R3" s="44" t="s">
         <v>31</v>
@@ -2669,7 +2753,7 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="35" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2719,7 +2803,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R4" s="44" t="s">
         <v>31</v>
@@ -2779,7 +2863,7 @@
         <v>29</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R5" s="44" t="s">
         <v>31</v>
@@ -2799,7 +2883,7 @@
         <v>396</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>37</v>
@@ -2811,7 +2895,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I6" s="34" t="str">
         <f t="shared" si="0"/>
@@ -2824,13 +2908,13 @@
         <v>98</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="M6" s="34" t="s">
         <v>103</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="O6" s="34" t="s">
         <v>129</v>
@@ -2839,7 +2923,7 @@
         <v>29</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R6" s="44" t="s">
         <v>31</v>
@@ -2847,7 +2931,7 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="35" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2871,24 +2955,24 @@
         <v>23</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="I7" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="34" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="O7" s="34" t="s">
         <v>136</v>
@@ -2897,7 +2981,7 @@
         <v>29</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R7" s="44" t="s">
         <v>31</v>
@@ -2905,7 +2989,7 @@
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2917,7 +3001,7 @@
         <v>398</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>37</v>
@@ -2929,23 +3013,23 @@
         <v>23</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="I8" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="N8" s="34" t="str">
         <f>K8</f>
@@ -2956,7 +3040,7 @@
         <v>29</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R8" s="44" t="s">
         <v>31</v>
@@ -2964,7 +3048,7 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="35" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2976,7 +3060,7 @@
         <v>399</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>426</v>
@@ -2988,23 +3072,23 @@
         <v>23</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="I9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="N9" s="34"/>
       <c r="O9" s="34" t="s">
@@ -3014,7 +3098,7 @@
         <v>29</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R9" s="44" t="s">
         <v>31</v>
@@ -3022,7 +3106,7 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3034,7 +3118,7 @@
         <v>400</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>426</v>
@@ -3065,7 +3149,7 @@
         <v>271</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>40</v>
@@ -3074,7 +3158,7 @@
         <v>29</v>
       </c>
       <c r="Q10" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R10" s="44" t="s">
         <v>31</v>
@@ -3082,7 +3166,7 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75">
@@ -3114,7 +3198,7 @@
         <v>29</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R11" s="44" t="s">
         <v>31</v>
@@ -3122,7 +3206,7 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="35" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3154,7 +3238,7 @@
         <v>29</v>
       </c>
       <c r="Q12" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R12" s="44" t="s">
         <v>31</v>
@@ -3162,7 +3246,7 @@
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="35" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3214,7 +3298,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R13" s="44" t="s">
         <v>31</v>
@@ -3234,7 +3318,7 @@
         <v>404</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>426</v>
@@ -3246,24 +3330,24 @@
         <v>23</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="I14" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>28</v>
@@ -3272,7 +3356,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R14" s="44" t="s">
         <v>31</v>
@@ -3280,7 +3364,7 @@
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3292,7 +3376,7 @@
         <v>405</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>426</v>
@@ -3304,26 +3388,26 @@
         <v>23</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="I15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="L15" s="34" t="s">
         <v>327</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>28</v>
@@ -3332,7 +3416,7 @@
         <v>29</v>
       </c>
       <c r="Q15" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R15" s="44" t="s">
         <v>31</v>
@@ -3340,7 +3424,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3352,7 +3436,7 @@
         <v>406</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>426</v>
@@ -3364,26 +3448,26 @@
         <v>23</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="I16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Desa Senyiur</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="L16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>28</v>
@@ -3392,7 +3476,7 @@
         <v>29</v>
       </c>
       <c r="Q16" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R16" s="44" t="s">
         <v>31</v>
@@ -3400,7 +3484,7 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3412,7 +3496,7 @@
         <v>407</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>426</v>
@@ -3424,26 +3508,26 @@
         <v>23</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="I17" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="O17" s="34" t="s">
         <v>129</v>
@@ -3452,7 +3536,7 @@
         <v>29</v>
       </c>
       <c r="Q17" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R17" s="44" t="s">
         <v>31</v>
@@ -3460,7 +3544,7 @@
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3510,7 +3594,7 @@
         <v>29</v>
       </c>
       <c r="Q18" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R18" s="44" t="s">
         <v>31</v>
@@ -3530,7 +3614,7 @@
         <v>409</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>426</v>
@@ -3542,26 +3626,26 @@
         <v>23</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="I19" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="L19" s="34" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="O19" s="34" t="s">
         <v>28</v>
@@ -3570,7 +3654,7 @@
         <v>29</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R19" s="44" t="s">
         <v>31</v>
@@ -3578,7 +3662,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3610,7 +3694,7 @@
         <v>29</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R20" s="44" t="s">
         <v>31</v>
@@ -3618,7 +3702,7 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3630,7 +3714,7 @@
         <v>411</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>426</v>
@@ -3642,26 +3726,26 @@
         <v>23</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="I21" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="L21" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O21" s="34" t="s">
         <v>28</v>
@@ -3670,7 +3754,7 @@
         <v>29</v>
       </c>
       <c r="Q21" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R21" s="44" t="s">
         <v>31</v>
@@ -3678,16 +3762,16 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="51" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="34" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -3709,7 +3793,7 @@
         <v>29</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="R22" s="44" t="s">
         <v>31</v>
@@ -3717,127 +3801,87 @@
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="35" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="31" t="s">
-        <v>466</v>
-      </c>
+      <c r="A25" s="31"/>
       <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="28" t="s">
-        <v>467</v>
-      </c>
+      <c r="A26" s="28"/>
       <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="28" t="s">
-        <v>468</v>
-      </c>
+      <c r="A27" s="28"/>
       <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="30" t="s">
-        <v>469</v>
-      </c>
+      <c r="A28" s="30"/>
       <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="28" t="s">
-        <v>470</v>
-      </c>
+      <c r="A29" s="28"/>
       <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="28" t="s">
-        <v>471</v>
-      </c>
+      <c r="A30" s="28"/>
       <c r="B30" s="28"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="31" t="s">
-        <v>472</v>
-      </c>
+      <c r="A31" s="31"/>
       <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="49" t="s">
-        <v>473</v>
-      </c>
+      <c r="A32" s="49"/>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="28" t="s">
-        <v>474</v>
-      </c>
+      <c r="A33" s="28"/>
       <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="49" t="s">
-        <v>475</v>
-      </c>
+      <c r="A34" s="49"/>
       <c r="B34" s="31"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="28" t="s">
-        <v>476</v>
-      </c>
+      <c r="A35" s="28"/>
       <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="31" t="s">
-        <v>477</v>
-      </c>
+      <c r="A36" s="31"/>
       <c r="B36" s="31"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="31" t="s">
-        <v>478</v>
-      </c>
+      <c r="A37" s="31"/>
       <c r="B37" s="31"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="49" t="s">
-        <v>479</v>
-      </c>
+      <c r="A38" s="49"/>
       <c r="B38" s="31"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="31" t="s">
-        <v>480</v>
-      </c>
+      <c r="A39" s="31"/>
       <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="49" t="s">
-        <v>481</v>
-      </c>
+      <c r="A40" s="49"/>
       <c r="B40" s="31"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="30" t="s">
-        <v>482</v>
-      </c>
+      <c r="A41" s="30"/>
       <c r="B41" s="30"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="31" t="s">
-        <v>483</v>
-      </c>
+      <c r="A42" s="31"/>
       <c r="B42" s="31"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="31" t="s">
-        <v>484</v>
-      </c>
+      <c r="A43" s="31"/>
       <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="49" t="s">
-        <v>485</v>
-      </c>
+      <c r="A44" s="49"/>
       <c r="B44" s="30"/>
     </row>
   </sheetData>
@@ -3855,7 +3899,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S12" sqref="S2:S12"/>
+      <selection pane="topRight" activeCell="A24" sqref="A14:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3996,7 +4040,7 @@
         <v>32</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4056,7 +4100,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4173,7 +4217,7 @@
         <v>32</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4233,7 +4277,7 @@
         <v>32</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4293,7 +4337,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4353,7 +4397,7 @@
         <v>32</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4413,7 +4457,7 @@
         <v>32</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4473,7 +4517,7 @@
         <v>32</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4533,7 +4577,7 @@
         <v>32</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4593,7 +4637,7 @@
         <v>32</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75">
@@ -4607,59 +4651,37 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="30" t="s">
-        <v>455</v>
-      </c>
+      <c r="A14" s="30"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="28" t="s">
-        <v>456</v>
-      </c>
+      <c r="A15" s="28"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="45" t="s">
-        <v>457</v>
-      </c>
+      <c r="A16" s="45"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="48" t="s">
-        <v>458</v>
-      </c>
+      <c r="A17" s="48"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="45" t="s">
-        <v>459</v>
-      </c>
+      <c r="A18" s="45"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="45" t="s">
-        <v>460</v>
-      </c>
+      <c r="A19" s="45"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="49" t="s">
-        <v>461</v>
-      </c>
+      <c r="A20" s="49"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="49" t="s">
-        <v>462</v>
-      </c>
+      <c r="A21" s="49"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="28" t="s">
-        <v>463</v>
-      </c>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="49" t="s">
-        <v>464</v>
-      </c>
+      <c r="A23" s="49"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="28" t="s">
-        <v>465</v>
-      </c>
+      <c r="A24" s="28"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R23">
@@ -4672,10 +4694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4699,7 +4721,7 @@
     <col min="18" max="18" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4758,7 +4780,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1">
+    <row r="2" spans="1:30" s="6" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -4814,8 +4836,20 @@
       <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -4871,8 +4905,11 @@
       <c r="R3" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="S3" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
@@ -4928,10 +4965,13 @@
       <c r="R4" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="S4" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="46" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>131</v>
@@ -4985,8 +5025,11 @@
       <c r="R5" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="S5" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="24" t="s">
         <v>138</v>
       </c>
@@ -5042,8 +5085,11 @@
       <c r="R6" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="S6" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="24" t="s">
         <v>145</v>
       </c>
@@ -5099,65 +5145,80 @@
       <c r="R7" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="4" t="s">
+      <c r="S7" s="16" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="4" t="str">
+      <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="Q8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -5213,8 +5274,11 @@
       <c r="R9" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1">
+      <c r="S9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="6" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>162</v>
       </c>
@@ -5270,8 +5334,20 @@
       <c r="R10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>164</v>
       </c>
@@ -5327,8 +5403,11 @@
       <c r="R11" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="S11" s="16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>171</v>
       </c>
@@ -5384,8 +5463,20 @@
       <c r="R12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>178</v>
       </c>
@@ -5441,8 +5532,20 @@
       <c r="R13" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -5499,7 +5602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
         <v>192</v>
       </c>
@@ -5553,8 +5656,11 @@
       <c r="R15" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="S15" s="16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
         <v>198</v>
       </c>
@@ -5610,8 +5716,11 @@
       <c r="R16" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>205</v>
       </c>
@@ -5667,8 +5776,11 @@
       <c r="R17" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="16" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>212</v>
       </c>
@@ -5724,8 +5836,11 @@
       <c r="R18" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="1" customFormat="1">
+      <c r="S18" s="16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
@@ -5782,7 +5897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>226</v>
       </c>
@@ -5838,8 +5953,11 @@
       <c r="R20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>233</v>
       </c>
@@ -5895,8 +6013,20 @@
       <c r="R21" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>240</v>
       </c>
@@ -5952,8 +6082,11 @@
       <c r="R22" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75">
+      <c r="S22" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="1" customFormat="1" ht="15.75">
       <c r="A23" s="1" t="s">
         <v>247</v>
       </c>
@@ -6009,108 +6142,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="45" t="s">
-        <v>442</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="50" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>587</v>
-      </c>
+    <row r="25" spans="1:30">
+      <c r="A25" s="45"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="50"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="45"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="23"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="50"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="50"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>589</v>
-      </c>
+      <c r="A33" s="23"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>585</v>
-      </c>
+      <c r="A34" s="23"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>584</v>
-      </c>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>586</v>
-      </c>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>581</v>
-      </c>
+      <c r="A37" s="26"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="23"/>
@@ -7202,705 +7273,761 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C95852-DA7B-4CD7-803F-D000A96CAA00}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="52" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="52" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" style="52" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="52" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="52" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="52" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" style="52" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="52" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" style="52" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-    </row>
+    <row r="1" spans="1:11" ht="85.5" customHeight="1"/>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="55" t="s">
-        <v>598</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="A2" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="A3" s="60" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>602</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>602</v>
-      </c>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
-      <c r="A6" s="53">
-        <v>1</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>490</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="53">
-        <v>1</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>455</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>575</v>
-      </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="53">
-        <v>1</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>604</v>
-      </c>
-      <c r="K6" s="59" t="s">
+      <c r="A6" s="61" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="61" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="61" t="s">
+        <v>585</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="A7" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>587</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="53">
-        <v>2</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>566</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="53">
-        <v>2</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>456</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>576</v>
-      </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="53">
-        <v>2</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>443</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>592</v>
+      <c r="D7" s="54"/>
+      <c r="E7" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>587</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>588</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>587</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="53">
-        <v>3</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="55"/>
       <c r="E8" s="53">
-        <v>3</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>457</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="H8" s="55"/>
       <c r="I8" s="53">
-        <v>3</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>580</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" s="53">
-        <v>4</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>469</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="D9" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="D9" s="55"/>
       <c r="E9" s="53">
-        <v>4</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>458</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>572</v>
-      </c>
-      <c r="H9" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="H9" s="55"/>
       <c r="I9" s="53">
-        <v>4</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>445</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>583</v>
+        <v>2</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" s="53">
-        <v>5</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="57"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="55"/>
       <c r="E10" s="53">
-        <v>5</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>459</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>571</v>
-      </c>
-      <c r="H10" s="57"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="H10" s="55"/>
       <c r="I10" s="53">
-        <v>5</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>446</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>582</v>
+        <v>3</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
       <c r="A11" s="53">
-        <v>6</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>471</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>517</v>
-      </c>
-      <c r="D11" s="57"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="55"/>
       <c r="E11" s="53">
-        <v>6</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>460</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>573</v>
-      </c>
-      <c r="H11" s="57"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>603</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="H11" s="55"/>
       <c r="I11" s="53">
-        <v>6</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>447</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>591</v>
+        <v>4</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>600</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
       <c r="A12" s="53">
-        <v>7</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>472</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>548</v>
-      </c>
-      <c r="D12" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" s="55"/>
       <c r="E12" s="53">
-        <v>7</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>461</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>574</v>
-      </c>
-      <c r="H12" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="H12" s="55"/>
       <c r="I12" s="53">
-        <v>7</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>448</v>
-      </c>
-      <c r="K12" s="53"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" s="53">
-        <v>8</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>556</v>
-      </c>
-      <c r="D13" s="57"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="55"/>
       <c r="E13" s="53">
-        <v>8</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>462</v>
-      </c>
-      <c r="G13" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="53">
+        <v>6</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="K13" s="57" t="s">
         <v>577</v>
-      </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="53">
-        <v>8</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>449</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="53">
-        <v>9</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>558</v>
-      </c>
-      <c r="D14" s="57"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" s="55"/>
       <c r="E14" s="53">
-        <v>9</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>570</v>
-      </c>
-      <c r="H14" s="57"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="H14" s="55"/>
       <c r="I14" s="53">
-        <v>9</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>589</v>
+        <v>7</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1">
       <c r="A15" s="53">
-        <v>10</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="C15" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>595</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="C15" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="55"/>
       <c r="E15" s="53">
-        <v>10</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>464</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="H15" s="57"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="H15" s="55"/>
       <c r="I15" s="53">
-        <v>10</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="59" t="s">
-        <v>585</v>
+        <v>8</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
       <c r="A16" s="53">
-        <v>11</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>596</v>
-      </c>
-      <c r="D16" s="57"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="55"/>
       <c r="E16" s="53">
-        <v>11</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>465</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>579</v>
-      </c>
-      <c r="H16" s="57"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="H16" s="55"/>
       <c r="I16" s="53">
-        <v>11</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>452</v>
-      </c>
-      <c r="K16" s="59" t="s">
-        <v>584</v>
+        <v>9</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="53">
-        <v>12</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>477</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>432</v>
-      </c>
-      <c r="D17" s="57"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>581</v>
+      </c>
+      <c r="D17" s="55"/>
       <c r="E17" s="53">
-        <v>12</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="57"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="H17" s="55"/>
       <c r="I17" s="53">
-        <v>12</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>586</v>
+        <v>10</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="53">
-        <v>13</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" s="57"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>582</v>
+      </c>
+      <c r="D18" s="55"/>
       <c r="E18" s="53">
-        <v>13</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="57"/>
+        <v>11</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="H18" s="55"/>
       <c r="I18" s="53">
-        <v>13</v>
-      </c>
-      <c r="J18" s="61" t="s">
-        <v>454</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>581</v>
+        <v>11</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>601</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="53">
-        <v>14</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>479</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="D19" s="57"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="D19" s="55"/>
       <c r="E19" s="53">
-        <v>14</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="57"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="53">
-        <v>14</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="58"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="53">
-        <v>15</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>480</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>542</v>
-      </c>
-      <c r="D20" s="57"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" s="55"/>
       <c r="E20" s="53">
-        <v>15</v>
-      </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="57"/>
+        <v>13</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="53">
-        <v>15</v>
-      </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="58"/>
+        <v>13</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1">
       <c r="A21" s="53">
-        <v>16</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>481</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>511</v>
-      </c>
-      <c r="D21" s="57"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" s="55"/>
       <c r="E21" s="53">
-        <v>16</v>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="57"/>
+        <v>14</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="53">
-        <v>16</v>
-      </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1">
       <c r="A22" s="53">
-        <v>17</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>482</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" s="57"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="D22" s="55"/>
       <c r="E22" s="53">
-        <v>17</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="57"/>
+        <v>15</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="53">
-        <v>17</v>
-      </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="58"/>
+        <v>15</v>
+      </c>
+      <c r="J22" s="58"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
       <c r="A23" s="53">
-        <v>18</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>483</v>
-      </c>
-      <c r="C23" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" s="56" t="s">
         <v>497</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="53">
-        <v>18</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="57"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="53">
-        <v>18</v>
-      </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="58"/>
+        <v>16</v>
+      </c>
+      <c r="J23" s="58"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1">
       <c r="A24" s="53">
-        <v>19</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>603</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>594</v>
-      </c>
-      <c r="D24" s="57"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="D24" s="55"/>
       <c r="E24" s="53">
-        <v>19</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="57"/>
+        <v>17</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="53">
-        <v>19</v>
-      </c>
-      <c r="J24" s="61"/>
-      <c r="K24" s="58"/>
+        <v>17</v>
+      </c>
+      <c r="J24" s="58"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
       <c r="A25" s="53">
-        <v>20</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>485</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>590</v>
-      </c>
-      <c r="D25" s="57"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>596</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="D25" s="55"/>
       <c r="E25" s="53">
-        <v>20</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="57"/>
+        <v>18</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="53">
-        <v>20</v>
-      </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="58"/>
+        <v>18</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1">
       <c r="A26" s="53">
+        <v>19</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="53">
+        <v>19</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="53">
+        <v>19</v>
+      </c>
+      <c r="J26" s="58"/>
+      <c r="K26" s="56"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="53">
+        <v>20</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="53">
+        <v>20</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="53">
+        <v>20</v>
+      </c>
+      <c r="J27" s="58"/>
+      <c r="K27" s="56"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="53">
         <v>21</v>
       </c>
-      <c r="B26" s="61" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>593</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="53">
+      <c r="B28" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>579</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="53">
         <v>21</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="53">
+      <c r="F28" s="58"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="53">
         <v>21</v>
       </c>
-      <c r="J26" s="61"/>
-      <c r="K26" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="56"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32" s="55" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="54" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="63" t="s">
+        <v>606</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD08B8E-290D-4ADD-9371-4365C723E296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02AC205-79E2-43EB-964B-EF3ADDD942AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="612">
   <si>
     <t>nama santri</t>
   </si>
@@ -1865,13 +1865,19 @@
   </si>
   <si>
     <t>'6402162605090001</t>
+  </si>
+  <si>
+    <t>Kelas 2</t>
+  </si>
+  <si>
+    <t>Kelas 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1957,24 +1963,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2073,26 +2086,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,108 +2114,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2541,8 +2555,8 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N45" sqref="N45"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C22" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2660,7 +2674,7 @@
         <v>473</v>
       </c>
       <c r="I2" s="34" t="str">
-        <f t="shared" ref="I2:I21" si="0">H2</f>
+        <f t="shared" ref="I2:I18" si="0">H2</f>
         <v>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</v>
       </c>
       <c r="J2" s="34" t="s">
@@ -3606,50 +3620,29 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="B19" s="19"/>
+      <c r="A19" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F19" s="44">
-        <v>3</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="I19" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>480</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="N19" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34">
+        <v>0</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="44" t="s">
         <v>29</v>
       </c>
@@ -3659,37 +3652,57 @@
       <c r="R19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
       <c r="U19" s="35" t="s">
-        <v>483</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="B20" s="32"/>
+      <c r="A20" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="44"/>
+        <v>409</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="44">
+        <v>3</v>
+      </c>
       <c r="G20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
+      <c r="H20" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="I20" s="34" t="str">
+        <f>H20</f>
+        <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="P20" s="44" t="s">
         <v>29</v>
       </c>
@@ -3702,54 +3715,34 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35" t="s">
-        <v>579</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="42" t="s">
-        <v>379</v>
+      <c r="A21" s="51" t="s">
+        <v>374</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>504</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F21" s="44">
-        <v>2</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="I21" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="N21" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34">
+        <f>H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
       <c r="P21" s="44" t="s">
         <v>29</v>
       </c>
@@ -3762,33 +3755,54 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="B22" s="33"/>
+      <c r="A22" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="32"/>
       <c r="C22" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="44"/>
+        <v>411</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="44">
+        <v>2</v>
+      </c>
       <c r="G22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="H22" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="I22" s="34" t="str">
+        <f>H22</f>
+        <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="P22" s="44" t="s">
         <v>29</v>
       </c>
@@ -3798,10 +3812,10 @@
       <c r="R22" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
       <c r="U22" s="35" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3885,8 +3899,8 @@
       <c r="B44" s="30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T21">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3898,8 +3912,8 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A14:A24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B12" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4684,8 +4698,8 @@
       <c r="A24" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R23">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S12">
+    <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4696,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" activeCellId="5" sqref="B20:B21 B18 B13:B16 B10:B11 B7:B8 B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4806,7 +4820,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I22" si="0">H2</f>
+        <f t="shared" ref="I2:I8" si="0">H2</f>
         <v>-</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -4850,77 +4864,75 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>H3</f>
-        <v>Jln. Banggris, No. 18, RT 3, 75127</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Perumahan Keledang Mas Baru, BS 27, Samarinda Seberang, Samarinda</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>574</v>
-      </c>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
@@ -4931,24 +4943,24 @@
       <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>127</v>
+      <c r="H4" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Jln. Sejati, Perum. Pondok Karya Lestari, Blok D, No. 39, RT 15</v>
+        <v>Jln. Banggris, No. 18, RT 3, 75127</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>29</v>
@@ -4966,46 +4978,46 @@
         <v>32</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="46" t="s">
-        <v>555</v>
+      <c r="A5" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Jln. Rukun, Rapak Dalam, Samarinda Seberang</v>
+        <v>Jln. Sejati, Perum. Pondok Karya Lestari, Blok D, No. 39, RT 15</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>129</v>
@@ -5026,186 +5038,186 @@
         <v>32</v>
       </c>
       <c r="S5" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jln. Sukun, RT 25/005, Loa Duri Ilir, Kec. Loa Janan, Kab. Kukar</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Jln. Rukun, Rapak Dalam, Samarinda Seberang</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="16" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="24" t="s">
+    <row r="8" spans="1:30">
+      <c r="A8" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B8" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="4" t="str">
+      <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jl. W. Monginsidi, RT 16, No. 17, Dadimulya, Samarinda, Kaltim</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="16" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="16" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. AP. Mangkunegara, Teluk Dalam, Gang Keluarga 3, Tenggarong, Kutai Kartanegara</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="14"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -5218,123 +5230,120 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
+    <row r="9" spans="1:30" ht="15.75">
+      <c r="A9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="H9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" s="6" customFormat="1">
+      <c r="A10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <f t="shared" ref="I10:I23" si="1">H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" s="6" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="1"/>
+      <c r="Q10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>573</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -5348,45 +5357,45 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>165</v>
+      <c r="A11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>168</v>
+      <c r="H11" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. Padat Karya, Gang Kaganangan, RT 73, No. 171, Loa Bakung, Samarinda</v>
+        <f t="shared" si="1"/>
+        <v>Jln. AP. Mangkunegara, Teluk Dalam, Gang Keluarga 3, Tenggarong, Kutai Kartanegara</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>29</v>
@@ -5404,46 +5413,46 @@
         <v>32</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. KH. Mas Mansyur, Perum. Batu Penggal, Blok A, No. 10, RT 1, Kel. Loa Bakung, Kec. Sungai Kunjang</v>
+        <f t="shared" si="1"/>
+        <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>122</v>
@@ -5463,7 +5472,7 @@
       <c r="R12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -5477,62 +5486,64 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="A13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Perumahan Keledang Mas Baru, BS 27, Samarinda Seberang, Samarinda</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="H13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="1"/>
+      <c r="Q13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>609</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -5546,74 +5557,77 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1">
-      <c r="A14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="A14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. Sukun, RT 25/005, Loa Duri Ilir, Kec. Loa Janan, Kab. Kukar</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="H14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. Borneo, RT 24, Kel. Simpang Pasir, Palaran</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>32</v>
+      <c r="Q14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>
@@ -5624,19 +5638,21 @@
       <c r="G15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H15" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Desa Sidomulyo, RT 10, No. 20, Kec. Anggana, Kab. Kukar, Kaltim</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>122</v>
@@ -5657,49 +5673,49 @@
         <v>32</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. Borneo, RT 24, Kel. Simpang Pasir, Palaran</v>
+        <f t="shared" si="1"/>
+        <v>Ulaq Nanga, Gang Melati</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>29</v>
@@ -5717,109 +5733,107 @@
         <v>32</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Desa Sidomulyo, RT 10, No. 20, Kec. Anggana, Kab. Kukar, Kaltim</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>571</v>
-      </c>
+      <c r="Q17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ulaq Nanga, Gang Melati</v>
+        <f t="shared" si="1"/>
+        <v>Jln. Padat Karya, Gang Kaganangan, RT 73, No. 171, Loa Bakung, Samarinda</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>29</v>
@@ -5837,7 +5851,7 @@
         <v>32</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:30" s="1" customFormat="1">
@@ -5866,7 +5880,7 @@
         <v>223</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Jln. Karet, Blok F, RT 29, Loa Janan Ulu</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -5923,7 +5937,7 @@
         <v>230</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Perum. Apel Biru Hill, Blok AZ, No. 9, Jln. Jakarta, Loa Bakung, Samarinda</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -5958,62 +5972,64 @@
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="A21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. Bung Tomo, Perum Keledang Mas Baru, blok BS no 21, RT 20, Kec. Samarinda Seberang, Kel. Sungai Keledang</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="H21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Loa Pari, RT 4</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>567</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -6027,104 +6043,103 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="A22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. Bung Tomo, Perum Keledang Mas Baru, blok BS no 21, RT 20, Kec. Samarinda Seberang, Kel. Sungai Keledang</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Loa Pari, RT 4</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>79</v>
+      <c r="H23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. KH. Mas Mansyur, Perum. Batu Penggal, Blok A, No. 10, RT 1, Kel. Loa Bakung, Kec. Sungai Kunjang</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>29</v>
@@ -6193,6 +6208,9 @@
       <c r="A45" s="23"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
+    <sortCondition ref="A23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6202,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" activeCellId="10" sqref="B2 B3 B5 B6 B7 B8 B9 B12 B14 B15 B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6284,216 +6302,216 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I18" si="0">H2</f>
+        <v>Jl. Mugirejo RT 10 Kelurahan Mugirejo</v>
+      </c>
+      <c r="J2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Slamet Riyadi RT 14 Kelurahan Teluk Lerong Ulu</v>
+      </c>
+      <c r="J3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Jakarta Blok S Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I18" si="0">H2</f>
-        <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>269</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>270</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" t="s">
         <v>271</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
         <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>261</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>Jl. Mugirejo RT 10 Kelurahan Mugirejo</v>
-      </c>
-      <c r="J5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5" t="s">
-        <v>129</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
@@ -6513,19 +6531,19 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6534,20 +6552,20 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>Jl. Jakarta 2 RT 81 Kelurahan Loa Bakung</v>
+        <v>Jl. Diponegoro RT 8 Desa Sidomulyo</v>
       </c>
       <c r="J6" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="M6" t="s">
         <v>122</v>
@@ -6570,41 +6588,41 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>Jl. Slamet Riyadi RT 14 Kelurahan Teluk Lerong Ulu</v>
+        <v>Jl. Jakarta 2 RT 81 Kelurahan Loa Bakung</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
         <v>122</v>
@@ -6684,41 +6702,41 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>Jl. Diponegoro RT 8 Desa Sidomulyo</v>
+        <v>Jl. Revolusi RT 6 Kelurahan Lok Bahu</v>
       </c>
       <c r="J9" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="K9" t="s">
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M9" t="s">
         <v>122</v>
@@ -6740,515 +6758,515 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1">
+      <c r="A12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. KH Mas Mansyur RT 18 Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J12" t="s">
+        <v>319</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>320</v>
+      </c>
+      <c r="M12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
         <v>307</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D14" t="s">
         <v>310</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H14" t="s">
         <v>311</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mubasyirot RT 29 Kelurahan Loa Janan Ulu</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J14" t="s">
         <v>312</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K14" t="s">
         <v>40</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L14" t="s">
         <v>313</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M14" t="s">
         <v>122</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N14" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O14" t="s">
         <v>261</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P14" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Jln. KS. Tubun Dalam, Gg. Wiratirta, RT 17, No. 26, Samarinda, Kaltim</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
-        <v>318</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>Jl. KH Mas Mansyur RT 18 Kelurahan Loa Bakung</v>
-      </c>
-      <c r="J11" t="s">
-        <v>319</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" t="s">
-        <v>320</v>
-      </c>
-      <c r="M11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>261</v>
-      </c>
-      <c r="P11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1">
-      <c r="A12" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RT 12 Desa Sidomulyo Kecamatan Anggana</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" t="s">
-        <v>330</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="Q16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
-        <v>333</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="H17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Jl. Revolusi RT 6 Kelurahan Lok Bahu</v>
-      </c>
-      <c r="J13" t="s">
-        <v>334</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>335</v>
-      </c>
-      <c r="M13" t="s">
+        <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O17" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
+      <c r="Q17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
         <v>336</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>339</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="F14">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G18" t="s">
         <v>23</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H18" t="s">
         <v>340</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Raudah RT 20 Kelurahan Teluk Lerong Ilir</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J18" t="s">
         <v>341</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K18" t="s">
         <v>129</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L18" t="s">
         <v>342</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M18" t="s">
         <v>129</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N18" t="s">
         <v>29</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O18" t="s">
         <v>261</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P18" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="1" customFormat="1">
-      <c r="A17" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jl. Jakarta Blok S Kelurahan Loa Bakung</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Jln. KS. Tubun Dalam, Gg. Wiratirta, RT 17, No. 26, Samarinda, Kaltim</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="R18" s="4" t="s">
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7263,8 +7281,8 @@
       <c r="M19" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R17">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R18">
+    <sortCondition ref="A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7273,10 +7291,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C95852-DA7B-4CD7-803F-D000A96CAA00}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7295,38 +7313,38 @@
     <col min="12" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="85.5" customHeight="1"/>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="59" t="s">
+    <row r="1" spans="1:19" ht="85.5" customHeight="1"/>
+    <row r="2" spans="1:19" ht="18" customHeight="1">
+      <c r="A2" s="63" t="s">
         <v>583</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -7339,7 +7357,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
+    <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -7352,57 +7370,57 @@
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:19" ht="18" customHeight="1">
+      <c r="A6" s="62" t="s">
         <v>585</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="61" t="s">
-        <v>585</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="E6" s="62" t="s">
+        <v>610</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="54"/>
-      <c r="I6" s="61" t="s">
-        <v>585</v>
-      </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="I6" s="62" t="s">
+        <v>611</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1">
+      <c r="A7" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>588</v>
       </c>
       <c r="D7" s="54"/>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="59" t="s">
         <v>588</v>
       </c>
       <c r="H7" s="54"/>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="59" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1">
+    <row r="8" spans="1:19" ht="18" customHeight="1">
       <c r="A8" s="53">
         <v>1</v>
       </c>
@@ -7432,8 +7450,12 @@
       <c r="K8" s="57" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="N8" s="58"/>
+      <c r="S8" s="58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1">
       <c r="A9" s="53">
         <v>2</v>
       </c>
@@ -7463,8 +7485,12 @@
       <c r="K9" s="57" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="N9" s="58"/>
+      <c r="S9" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1">
       <c r="A10" s="53">
         <v>3</v>
       </c>
@@ -7494,8 +7520,12 @@
       <c r="K10" s="57" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="N10" s="58"/>
+      <c r="S10" s="58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1">
       <c r="A11" s="53">
         <v>4</v>
       </c>
@@ -7525,8 +7555,12 @@
       <c r="K11" s="57" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="N11" s="58"/>
+      <c r="S11" s="58" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1">
       <c r="A12" s="53">
         <v>5</v>
       </c>
@@ -7548,16 +7582,20 @@
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>593</v>
+        <v>445</v>
       </c>
       <c r="K12" s="57" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
+        <v>573</v>
+      </c>
+      <c r="N12" s="58"/>
+      <c r="S12" s="58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1">
       <c r="A13" s="53">
         <v>6</v>
       </c>
@@ -7579,16 +7617,20 @@
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>443</v>
+        <v>593</v>
       </c>
       <c r="K13" s="57" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
+        <v>568</v>
+      </c>
+      <c r="N13" s="58"/>
+      <c r="S13" s="58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1">
       <c r="A14" s="53">
         <v>7</v>
       </c>
@@ -7610,16 +7652,20 @@
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
+        <v>577</v>
+      </c>
+      <c r="N14" s="58"/>
+      <c r="S14" s="58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1">
       <c r="A15" s="53">
         <v>8</v>
       </c>
@@ -7641,16 +7687,20 @@
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="N15" s="58"/>
+      <c r="S15" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="K15" s="57" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1">
       <c r="A16" s="53">
         <v>9</v>
       </c>
@@ -7672,16 +7722,20 @@
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="N16" s="58"/>
+      <c r="S16" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="K16" s="57" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1">
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1">
       <c r="A17" s="53">
         <v>10</v>
       </c>
@@ -7703,16 +7757,20 @@
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>447</v>
+        <v>601</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1">
+        <v>570</v>
+      </c>
+      <c r="N17" s="58"/>
+      <c r="S17" s="58" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1">
       <c r="A18" s="53">
         <v>11</v>
       </c>
@@ -7734,16 +7792,20 @@
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="53">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>601</v>
+        <v>444</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1">
+        <v>591</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="S18" s="58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1">
       <c r="A19" s="53">
         <v>12</v>
       </c>
@@ -7769,8 +7831,12 @@
       <c r="K19" s="57" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1">
+      <c r="N19" s="58"/>
+      <c r="S19" s="58" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1">
       <c r="A20" s="53">
         <v>13</v>
       </c>
@@ -7796,8 +7862,12 @@
       <c r="K20" s="57" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1">
+      <c r="N20" s="58"/>
+      <c r="S20" s="58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1">
       <c r="A21" s="53">
         <v>14</v>
       </c>
@@ -7819,8 +7889,12 @@
       </c>
       <c r="J21" s="58"/>
       <c r="K21" s="56"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1">
+      <c r="N21" s="58"/>
+      <c r="S21" s="58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1">
       <c r="A22" s="53">
         <v>15</v>
       </c>
@@ -7842,8 +7916,12 @@
       </c>
       <c r="J22" s="58"/>
       <c r="K22" s="56"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1">
+      <c r="N22" s="58"/>
+      <c r="S22" s="58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1">
       <c r="A23" s="53">
         <v>16</v>
       </c>
@@ -7865,8 +7943,12 @@
       </c>
       <c r="J23" s="58"/>
       <c r="K23" s="56"/>
-    </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1">
+      <c r="N23" s="58"/>
+      <c r="S23" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1">
       <c r="A24" s="53">
         <v>17</v>
       </c>
@@ -7888,16 +7970,17 @@
       </c>
       <c r="J24" s="58"/>
       <c r="K24" s="56"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1">
+      <c r="N24" s="58"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1">
       <c r="A25" s="53">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>483</v>
+        <v>580</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="53">
@@ -7911,16 +7994,20 @@
       </c>
       <c r="J25" s="58"/>
       <c r="K25" s="56"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1">
+      <c r="N25" s="58"/>
+      <c r="S25" s="58" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" customHeight="1">
       <c r="A26" s="53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>580</v>
+        <v>483</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="53">
@@ -7934,16 +8021,20 @@
       </c>
       <c r="J26" s="58"/>
       <c r="K26" s="56"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26" s="58"/>
+      <c r="S26" s="58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="53">
@@ -7957,16 +8048,20 @@
       </c>
       <c r="J27" s="58"/>
       <c r="K27" s="56"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27" s="58"/>
+      <c r="S27" s="58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="53">
@@ -7980,44 +8075,180 @@
       </c>
       <c r="J28" s="58"/>
       <c r="K28" s="56"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28" s="58"/>
+      <c r="S28" s="58" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="J29" s="55"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29" s="58"/>
+      <c r="S29" s="58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="J30" s="55"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30" s="58"/>
+      <c r="S30" s="58" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="J31" s="55"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31" s="58"/>
+      <c r="S31" s="58" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="J32" s="55" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="33" spans="10:10">
+      <c r="N32" s="58"/>
+      <c r="S32" s="58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="10:19">
       <c r="J33" s="54" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="34" spans="10:10">
+      <c r="N33" s="58"/>
+      <c r="S33" s="58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="10:19">
       <c r="J34" s="55"/>
-    </row>
-    <row r="35" spans="10:10">
+      <c r="N34" s="58"/>
+      <c r="S34" s="58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19">
       <c r="J35" s="55"/>
-    </row>
-    <row r="36" spans="10:10">
+      <c r="N35" s="58"/>
+      <c r="S35" s="58" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="10:19">
       <c r="J36" s="55"/>
-    </row>
-    <row r="37" spans="10:10">
+      <c r="N36" s="58"/>
+      <c r="S36" s="58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="10:19">
       <c r="J37" s="55"/>
-    </row>
-    <row r="38" spans="10:10">
-      <c r="J38" s="63" t="s">
+      <c r="N37" s="58"/>
+      <c r="S37" s="58" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="10:19">
+      <c r="J38" s="60" t="s">
         <v>606</v>
       </c>
+      <c r="N38" s="58"/>
+      <c r="S38" s="58" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="10:19">
+      <c r="N39" s="58"/>
+      <c r="S39" s="58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="10:19">
+      <c r="N40" s="58"/>
+      <c r="S40" s="58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="10:19">
+      <c r="N41" s="58"/>
+      <c r="S41" s="58" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="42" spans="10:19">
+      <c r="N42" s="58"/>
+      <c r="S42" s="58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="10:19">
+      <c r="N43" s="58"/>
+      <c r="S43" s="58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="10:19">
+      <c r="N44" s="58"/>
+      <c r="S44" s="58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" spans="10:19">
+      <c r="N45" s="58"/>
+      <c r="S45" s="58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="10:19">
+      <c r="N46" s="58"/>
+      <c r="S46" s="58" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="10:19">
+      <c r="N47" s="58"/>
+      <c r="S47" s="58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="10:19">
+      <c r="N48" s="58"/>
+      <c r="S48" s="58" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="49" spans="14:19">
+      <c r="N49" s="58"/>
+      <c r="S49" s="58" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="50" spans="14:19">
+      <c r="N50" s="58"/>
+      <c r="S50" s="58" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="51" spans="14:19">
+      <c r="N51" s="58"/>
+      <c r="S51" s="58" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="14:19">
+      <c r="N52" s="58"/>
+      <c r="S52" s="58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="14:19">
+      <c r="S53" s="58" t="s">
+        <v>471</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N8:N52">
+    <sortCondition ref="N8:N52"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="E6:G6"/>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02AC205-79E2-43EB-964B-EF3ADDD942AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D179B08-8CD3-4ACF-AA58-2F2448759EFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <sheet name="NIK" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -382,9 +371,6 @@
     <t>6 Juni 2021</t>
   </si>
   <si>
-    <t>Arviandow</t>
-  </si>
-  <si>
     <t>21.02.019</t>
   </si>
   <si>
@@ -1871,6 +1857,9 @@
   </si>
   <si>
     <t>Kelas 3</t>
+  </si>
+  <si>
+    <t>Arviandow Febriansyah</t>
   </si>
 </sst>
 </file>
@@ -2590,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>553</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>554</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>3</v>
@@ -2617,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L1" s="43" t="s">
         <v>10</v>
@@ -2626,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O1" s="43" t="s">
         <v>12</v>
@@ -2647,22 +2636,22 @@
         <v>17</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F2" s="44">
         <v>4</v>
@@ -2671,35 +2660,35 @@
         <v>23</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I2" s="34" t="str">
         <f t="shared" ref="I2:I18" si="0">H2</f>
         <v>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R2" s="44" t="s">
         <v>31</v>
@@ -2707,19 +2696,19 @@
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
       <c r="U2" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>37</v>
@@ -2731,35 +2720,35 @@
         <v>23</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I3" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J3" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>551</v>
-      </c>
       <c r="O3" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R3" s="44" t="s">
         <v>31</v>
@@ -2767,19 +2756,19 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>37</v>
@@ -2791,33 +2780,33 @@
         <v>23</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I4" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Raudah, RT 20, No. 30, Kel. Teluk Lerong Ilir, Samarinda Ulu, Kalimantan Timur</v>
       </c>
       <c r="J4" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>341</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>342</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P4" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R4" s="44" t="s">
         <v>31</v>
@@ -2825,19 +2814,19 @@
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>37</v>
@@ -2849,35 +2838,35 @@
         <v>23</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Balikpapan Regency, De Valley, D2-33, Sepinggan, Balikpapan</v>
       </c>
       <c r="J5" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="L5" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="N5" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="O5" s="34" t="s">
         <v>439</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>440</v>
       </c>
       <c r="P5" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R5" s="44" t="s">
         <v>31</v>
@@ -2885,19 +2874,19 @@
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>37</v>
@@ -2909,7 +2898,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I6" s="34" t="str">
         <f t="shared" si="0"/>
@@ -2922,22 +2911,22 @@
         <v>98</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M6" s="34" t="s">
         <v>103</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R6" s="44" t="s">
         <v>31</v>
@@ -2945,22 +2934,22 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F7" s="44">
         <v>3</v>
@@ -2969,33 +2958,33 @@
         <v>23</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I7" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</v>
       </c>
       <c r="J7" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="K7" s="35" t="s">
         <v>499</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>500</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="N7" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="N7" s="35" t="s">
-        <v>502</v>
-      </c>
       <c r="O7" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P7" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R7" s="44" t="s">
         <v>31</v>
@@ -3003,19 +2992,19 @@
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>37</v>
@@ -3027,23 +3016,23 @@
         <v>23</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I8" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N8" s="34" t="str">
         <f>K8</f>
@@ -3054,7 +3043,7 @@
         <v>29</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R8" s="44" t="s">
         <v>31</v>
@@ -3062,22 +3051,22 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F9" s="44">
         <v>3</v>
@@ -3086,23 +3075,23 @@
         <v>23</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
       </c>
       <c r="J9" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>539</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>540</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N9" s="34"/>
       <c r="O9" s="34" t="s">
@@ -3112,7 +3101,7 @@
         <v>29</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R9" s="44" t="s">
         <v>31</v>
@@ -3120,22 +3109,22 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="44">
         <v>3</v>
@@ -3144,26 +3133,26 @@
         <v>23</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I10" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>40</v>
@@ -3172,7 +3161,7 @@
         <v>29</v>
       </c>
       <c r="Q10" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R10" s="44" t="s">
         <v>31</v>
@@ -3180,16 +3169,16 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75">
       <c r="A11" s="51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="34"/>
@@ -3212,7 +3201,7 @@
         <v>29</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R11" s="44" t="s">
         <v>31</v>
@@ -3220,16 +3209,16 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -3252,7 +3241,7 @@
         <v>29</v>
       </c>
       <c r="Q12" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R12" s="44" t="s">
         <v>31</v>
@@ -3260,22 +3249,22 @@
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="F13" s="44">
         <v>1</v>
@@ -3284,26 +3273,26 @@
         <v>23</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I13" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan KS Tubun, Gang Wiratirta, RT 17, Kelurahan Sidodadi, Kecamatan Samarinda Ulu, Kota Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J13" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="K13" s="35" t="s">
         <v>428</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>429</v>
       </c>
       <c r="L13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M13" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="N13" s="35" t="s">
         <v>430</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>431</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>28</v>
@@ -3312,7 +3301,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R13" s="44" t="s">
         <v>31</v>
@@ -3320,22 +3309,22 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F14" s="44">
         <v>5</v>
@@ -3344,24 +3333,24 @@
         <v>23</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I14" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</v>
       </c>
       <c r="J14" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>486</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>487</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="N14" s="35" t="s">
         <v>488</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>489</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>28</v>
@@ -3370,7 +3359,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R14" s="44" t="s">
         <v>31</v>
@@ -3378,22 +3367,22 @@
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F15" s="44">
         <v>1</v>
@@ -3402,26 +3391,26 @@
         <v>23</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
       </c>
       <c r="J15" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="K15" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="L15" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M15" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="L15" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="M15" s="34" t="s">
+      <c r="N15" s="35" t="s">
         <v>519</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>520</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>28</v>
@@ -3430,7 +3419,7 @@
         <v>29</v>
       </c>
       <c r="Q15" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R15" s="44" t="s">
         <v>31</v>
@@ -3438,22 +3427,22 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F16" s="44">
         <v>2</v>
@@ -3462,26 +3451,26 @@
         <v>23</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Desa Senyiur</v>
       </c>
       <c r="J16" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="K16" s="35" t="s">
         <v>524</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>525</v>
       </c>
       <c r="L16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="N16" s="35" t="s">
         <v>526</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>527</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>28</v>
@@ -3490,7 +3479,7 @@
         <v>29</v>
       </c>
       <c r="Q16" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R16" s="44" t="s">
         <v>31</v>
@@ -3498,22 +3487,22 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F17" s="44">
         <v>1</v>
@@ -3522,35 +3511,35 @@
         <v>23</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I17" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</v>
       </c>
       <c r="J17" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>493</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>494</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="N17" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="N17" s="35" t="s">
-        <v>496</v>
-      </c>
       <c r="O17" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P17" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R17" s="44" t="s">
         <v>31</v>
@@ -3558,19 +3547,19 @@
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>37</v>
@@ -3582,33 +3571,33 @@
         <v>23</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I18" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Rapak Indah Permai, Puri Kencana, Blok L, RT 50, No. 18, Lok Bahu, Sungai Kunjang, Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J18" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="M18" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>417</v>
       </c>
       <c r="N18" s="34"/>
       <c r="O18" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q18" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R18" s="44" t="s">
         <v>31</v>
@@ -3616,16 +3605,16 @@
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -3647,7 +3636,7 @@
         <v>29</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R19" s="44" t="s">
         <v>31</v>
@@ -3655,22 +3644,22 @@
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F20" s="44">
         <v>3</v>
@@ -3679,26 +3668,26 @@
         <v>23</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I20" s="34" t="str">
         <f>H20</f>
         <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
       </c>
       <c r="J20" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="K20" s="35" t="s">
         <v>479</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>480</v>
       </c>
       <c r="L20" s="34" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="N20" s="35" t="s">
         <v>481</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>482</v>
       </c>
       <c r="O20" s="34" t="s">
         <v>28</v>
@@ -3707,7 +3696,7 @@
         <v>29</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R20" s="44" t="s">
         <v>31</v>
@@ -3715,16 +3704,16 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -3747,7 +3736,7 @@
         <v>29</v>
       </c>
       <c r="Q21" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R21" s="44" t="s">
         <v>31</v>
@@ -3755,22 +3744,22 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F22" s="44">
         <v>2</v>
@@ -3779,26 +3768,26 @@
         <v>23</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I22" s="34" t="str">
         <f>H22</f>
         <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
       </c>
       <c r="J22" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="K22" s="35" t="s">
         <v>506</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>507</v>
       </c>
       <c r="L22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M22" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="N22" s="35" t="s">
         <v>508</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>509</v>
       </c>
       <c r="O22" s="34" t="s">
         <v>28</v>
@@ -3807,7 +3796,7 @@
         <v>29</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R22" s="44" t="s">
         <v>31</v>
@@ -3815,7 +3804,7 @@
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3899,7 +3888,7 @@
       <c r="B44" s="30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
+  <sortState ref="A2:U22">
     <sortCondition ref="A2:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3994,7 +3983,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -4054,7 +4043,7 @@
         <v>32</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4114,7 +4103,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4231,7 +4220,7 @@
         <v>32</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4291,7 +4280,7 @@
         <v>32</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4351,7 +4340,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4411,7 +4400,7 @@
         <v>32</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4471,7 +4460,7 @@
         <v>32</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4531,7 +4520,7 @@
         <v>32</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4591,7 +4580,7 @@
         <v>32</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4651,7 +4640,7 @@
         <v>32</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75">
@@ -4698,7 +4687,7 @@
       <c r="A24" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S12">
+  <sortState ref="A2:S12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4710,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" activeCellId="5" sqref="B20:B21 B18 B13:B16 B10:B11 B7:B8 B4:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4791,7 +4780,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="6" customFormat="1">
@@ -4865,16 +4854,16 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -4886,23 +4875,23 @@
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Keledang Mas Baru, BS 27, Samarinda Seberang, Samarinda</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>29</v>
@@ -4923,16 +4912,16 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
@@ -4944,23 +4933,23 @@
         <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Banggris, No. 18, RT 3, 75127</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>29</v>
@@ -4978,21 +4967,21 @@
         <v>32</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="C5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -5004,23 +4993,23 @@
         <v>23</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Sejati, Perum. Pondok Karya Lestari, Blok D, No. 39, RT 15</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>29</v>
@@ -5038,21 +5027,21 @@
         <v>32</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
@@ -5064,23 +5053,23 @@
         <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Sukun, RT 25/005, Loa Duri Ilir, Kec. Loa Janan, Kab. Kukar</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>29</v>
@@ -5101,16 +5090,16 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B7" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
@@ -5122,23 +5111,23 @@
         <v>23</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Rukun, Rapak Dalam, Samarinda Seberang</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>29</v>
@@ -5156,21 +5145,21 @@
         <v>32</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
@@ -5182,23 +5171,23 @@
         <v>23</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jl. W. Monginsidi, RT 16, No. 17, Dadimulya, Samarinda, Kaltim</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>29</v>
@@ -5216,7 +5205,7 @@
         <v>32</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -5232,16 +5221,16 @@
     </row>
     <row r="9" spans="1:30" ht="15.75">
       <c r="A9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>37</v>
@@ -5253,19 +5242,19 @@
         <v>23</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>79</v>
@@ -5289,16 +5278,16 @@
     </row>
     <row r="10" spans="1:30" s="6" customFormat="1">
       <c r="A10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
@@ -5315,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>29</v>
@@ -5342,7 +5331,7 @@
         <v>32</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -5358,16 +5347,16 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
@@ -5379,23 +5368,23 @@
         <v>23</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. AP. Mangkunegara, Teluk Dalam, Gang Keluarga 3, Tenggarong, Kutai Kartanegara</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>29</v>
@@ -5413,21 +5402,21 @@
         <v>32</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -5439,23 +5428,23 @@
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>29</v>
@@ -5487,16 +5476,16 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
@@ -5508,23 +5497,23 @@
         <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>29</v>
@@ -5542,7 +5531,7 @@
         <v>32</v>
       </c>
       <c r="S13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -5558,16 +5547,16 @@
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>37</v>
@@ -5579,23 +5568,23 @@
         <v>23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Borneo, RT 24, Kel. Simpang Pasir, Palaran</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>29</v>
@@ -5613,21 +5602,21 @@
         <v>32</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>
@@ -5639,23 +5628,23 @@
         <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Desa Sidomulyo, RT 10, No. 20, Kec. Anggana, Kab. Kukar, Kaltim</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>29</v>
@@ -5673,21 +5662,21 @@
         <v>32</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
@@ -5699,23 +5688,23 @@
         <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulaq Nanga, Gang Melati</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>29</v>
@@ -5733,15 +5722,15 @@
         <v>32</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -5796,16 +5785,16 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -5817,23 +5806,23 @@
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Padat Karya, Gang Kaganangan, RT 73, No. 171, Loa Bakung, Samarinda</v>
       </c>
       <c r="J18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="M18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>29</v>
@@ -5851,21 +5840,21 @@
         <v>32</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:30" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
@@ -5877,23 +5866,23 @@
         <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Karet, Blok F, RT 29, Loa Janan Ulu</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>29</v>
@@ -5913,16 +5902,16 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
@@ -5934,20 +5923,20 @@
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Perum. Apel Biru Hill, Blok AZ, No. 9, Jln. Jakarta, Loa Bakung, Samarinda</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>40</v>
@@ -5968,21 +5957,21 @@
         <v>32</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>22</v>
@@ -5994,23 +5983,23 @@
         <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Loa Pari, RT 4</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>29</v>
@@ -6028,7 +6017,7 @@
         <v>32</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -6044,16 +6033,16 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>37</v>
@@ -6065,23 +6054,23 @@
         <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Bung Tomo, Perum Keledang Mas Baru, blok BS no 21, RT 20, Kec. Samarinda Seberang, Kel. Sungai Keledang</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>29</v>
@@ -6102,16 +6091,16 @@
     </row>
     <row r="23" spans="1:30" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>22</v>
@@ -6123,23 +6112,23 @@
         <v>23</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. KH. Mas Mansyur, Perum. Batu Penggal, Blok A, No. 10, RT 1, Kel. Loa Bakung, Kec. Sungai Kunjang</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>29</v>
@@ -6208,7 +6197,7 @@
       <c r="A45" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
+  <sortState ref="A2:S23">
     <sortCondition ref="A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6303,16 +6292,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
         <v>272</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" t="s">
         <v>274</v>
-      </c>
-      <c r="D2" t="s">
-        <v>275</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -6324,29 +6313,29 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I18" si="0">H2</f>
         <v>Jl. Mugirejo RT 10 Kelurahan Mugirejo</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
@@ -6360,16 +6349,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
         <v>286</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" t="s">
         <v>288</v>
-      </c>
-      <c r="D3" t="s">
-        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -6381,29 +6370,29 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Slamet Riyadi RT 14 Kelurahan Teluk Lerong Ulu</v>
       </c>
       <c r="J3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
         <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
@@ -6417,16 +6406,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>
@@ -6438,35 +6427,35 @@
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok S Kelurahan Loa Bakung</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>32</v>
@@ -6474,16 +6463,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
         <v>265</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" t="s">
         <v>267</v>
-      </c>
-      <c r="D5" t="s">
-        <v>268</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -6495,20 +6484,20 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K5" t="s">
         <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
@@ -6517,7 +6506,7 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
@@ -6531,16 +6520,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" t="s">
         <v>300</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" t="s">
         <v>302</v>
-      </c>
-      <c r="D6" t="s">
-        <v>303</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -6552,29 +6541,29 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Diponegoro RT 8 Desa Sidomulyo</v>
       </c>
       <c r="J6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
@@ -6588,16 +6577,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" t="s">
         <v>279</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" t="s">
         <v>281</v>
-      </c>
-      <c r="D7" t="s">
-        <v>282</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -6609,29 +6598,29 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta 2 RT 81 Kelurahan Loa Bakung</v>
       </c>
       <c r="J7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
         <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s">
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P7" t="s">
         <v>31</v>
@@ -6645,16 +6634,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
         <v>293</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" t="s">
         <v>295</v>
-      </c>
-      <c r="D8" t="s">
-        <v>296</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -6666,29 +6655,29 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Gerbang Dayaku RT 24 Kelurahan Loa Duri Ilir</v>
       </c>
       <c r="J8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s">
         <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -6702,16 +6691,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
         <v>329</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>331</v>
-      </c>
-      <c r="D9" t="s">
-        <v>332</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -6723,29 +6712,29 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Revolusi RT 6 Kelurahan Lok Bahu</v>
       </c>
       <c r="J9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K9" t="s">
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
         <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P9" t="s">
         <v>31</v>
@@ -6759,16 +6748,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
@@ -6780,29 +6769,29 @@
         <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>31</v>
@@ -6816,16 +6805,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
@@ -6837,29 +6826,29 @@
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>31</v>
@@ -6873,16 +6862,16 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1">
       <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" t="s">
         <v>314</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" t="s">
         <v>316</v>
-      </c>
-      <c r="D12" t="s">
-        <v>317</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -6894,29 +6883,29 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>Jl. KH Mas Mansyur RT 18 Kelurahan Loa Bakung</v>
       </c>
       <c r="J12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s">
         <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
@@ -6930,16 +6919,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -6951,29 +6940,29 @@
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>31</v>
@@ -6987,16 +6976,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" t="s">
         <v>307</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" t="s">
         <v>309</v>
-      </c>
-      <c r="D14" t="s">
-        <v>310</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -7008,29 +6997,29 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mubasyirot RT 29 Kelurahan Loa Janan Ulu</v>
       </c>
       <c r="J14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K14" t="s">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" t="s">
         <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P14" t="s">
         <v>31</v>
@@ -7044,16 +7033,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -7065,35 +7054,35 @@
         <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. KS. Tubun Dalam, Gg. Wiratirta, RT 17, No. 26, Samarinda, Kaltim</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>32</v>
@@ -7101,16 +7090,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
@@ -7122,29 +7111,29 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RT 12 Desa Sidomulyo Kecamatan Anggana</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="M16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>31</v>
@@ -7158,16 +7147,16 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
@@ -7179,29 +7168,29 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>31</v>
@@ -7215,16 +7204,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" t="s">
         <v>336</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" t="s">
         <v>338</v>
-      </c>
-      <c r="D18" t="s">
-        <v>339</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -7236,29 +7225,29 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Raudah RT 20 Kelurahan Teluk Lerong Ilir</v>
       </c>
       <c r="J18" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" t="s">
         <v>341</v>
       </c>
-      <c r="K18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" t="s">
-        <v>342</v>
-      </c>
       <c r="M18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N18" t="s">
         <v>29</v>
       </c>
       <c r="O18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P18" t="s">
         <v>31</v>
@@ -7281,7 +7270,7 @@
       <c r="M19" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R18">
+  <sortState ref="A2:R18">
     <sortCondition ref="A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7293,7 +7282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C95852-DA7B-4CD7-803F-D000A96CAA00}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -7316,7 +7305,7 @@
     <row r="1" spans="1:19" ht="85.5" customHeight="1"/>
     <row r="2" spans="1:19" ht="18" customHeight="1">
       <c r="A2" s="63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -7331,7 +7320,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1">
       <c r="A3" s="64" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -7372,52 +7361,52 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="54"/>
       <c r="E6" s="62" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="54"/>
       <c r="I6" s="62" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
       <c r="A7" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="C7" s="59" t="s">
         <v>587</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>588</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="G7" s="59" t="s">
         <v>587</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>588</v>
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="J7" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="K7" s="59" t="s">
         <v>587</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1">
@@ -7425,34 +7414,34 @@
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="53">
         <v>1</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="53">
         <v>1</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N8" s="58"/>
       <c r="S8" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1">
@@ -7460,34 +7449,34 @@
         <v>2</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="53">
         <v>2</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="53">
         <v>2</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N9" s="58"/>
       <c r="S9" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1">
@@ -7495,34 +7484,34 @@
         <v>3</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="53">
         <v>3</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="53">
         <v>3</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K10" s="57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N10" s="58"/>
       <c r="S10" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1">
@@ -7530,34 +7519,34 @@
         <v>4</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="53">
         <v>4</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="53">
         <v>4</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K11" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N11" s="58"/>
       <c r="S11" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1">
@@ -7565,34 +7554,34 @@
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="53">
         <v>5</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="53">
         <v>8</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K12" s="57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N12" s="58"/>
       <c r="S12" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1">
@@ -7600,34 +7589,34 @@
         <v>6</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="53">
         <v>6</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="53">
         <v>5</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K13" s="57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N13" s="58"/>
       <c r="S13" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1">
@@ -7635,34 +7624,34 @@
         <v>7</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="53">
         <v>7</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="53">
         <v>6</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N14" s="58"/>
       <c r="S14" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1">
@@ -7670,34 +7659,34 @@
         <v>8</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="53">
         <v>8</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="53">
         <v>9</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K15" s="57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N15" s="58"/>
       <c r="S15" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1">
@@ -7705,34 +7694,34 @@
         <v>9</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="53">
         <v>9</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="53">
         <v>10</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N16" s="58"/>
       <c r="S16" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
@@ -7740,34 +7729,34 @@
         <v>10</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="53">
         <v>10</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="53">
         <v>11</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N17" s="58"/>
       <c r="S17" s="58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1">
@@ -7775,34 +7764,34 @@
         <v>11</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="53">
         <v>11</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="53">
         <v>7</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N18" s="58"/>
       <c r="S18" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1">
@@ -7810,10 +7799,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="53">
@@ -7826,14 +7815,14 @@
         <v>12</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N19" s="58"/>
       <c r="S19" s="58" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
@@ -7841,10 +7830,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="53">
@@ -7857,14 +7846,14 @@
         <v>13</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N20" s="58"/>
       <c r="S20" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
@@ -7872,10 +7861,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="53">
@@ -7891,7 +7880,7 @@
       <c r="K21" s="56"/>
       <c r="N21" s="58"/>
       <c r="S21" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1">
@@ -7899,10 +7888,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="53">
@@ -7918,7 +7907,7 @@
       <c r="K22" s="56"/>
       <c r="N22" s="58"/>
       <c r="S22" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -7926,10 +7915,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="53">
@@ -7945,7 +7934,7 @@
       <c r="K23" s="56"/>
       <c r="N23" s="58"/>
       <c r="S23" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1">
@@ -7953,10 +7942,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="53">
@@ -7977,10 +7966,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="53">
@@ -7996,7 +7985,7 @@
       <c r="K25" s="56"/>
       <c r="N25" s="58"/>
       <c r="S25" s="58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
@@ -8004,10 +7993,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="53">
@@ -8023,7 +8012,7 @@
       <c r="K26" s="56"/>
       <c r="N26" s="58"/>
       <c r="S26" s="58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -8031,10 +8020,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="53">
@@ -8050,7 +8039,7 @@
       <c r="K27" s="56"/>
       <c r="N27" s="58"/>
       <c r="S27" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -8058,10 +8047,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="53">
@@ -8077,176 +8066,176 @@
       <c r="K28" s="56"/>
       <c r="N28" s="58"/>
       <c r="S28" s="58" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="J29" s="55"/>
       <c r="N29" s="58"/>
       <c r="S29" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="J30" s="55"/>
       <c r="N30" s="58"/>
       <c r="S30" s="58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="J31" s="55"/>
       <c r="N31" s="58"/>
       <c r="S31" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="J32" s="55" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N32" s="58"/>
       <c r="S32" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="10:19">
       <c r="J33" s="54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N33" s="58"/>
       <c r="S33" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="10:19">
       <c r="J34" s="55"/>
       <c r="N34" s="58"/>
       <c r="S34" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="10:19">
       <c r="J35" s="55"/>
       <c r="N35" s="58"/>
       <c r="S35" s="58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="10:19">
       <c r="J36" s="55"/>
       <c r="N36" s="58"/>
       <c r="S36" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="10:19">
       <c r="J37" s="55"/>
       <c r="N37" s="58"/>
       <c r="S37" s="58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="10:19">
       <c r="J38" s="60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N38" s="58"/>
       <c r="S38" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="10:19">
       <c r="N39" s="58"/>
       <c r="S39" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="10:19">
       <c r="N40" s="58"/>
       <c r="S40" s="58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="10:19">
       <c r="N41" s="58"/>
       <c r="S41" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="10:19">
       <c r="N42" s="58"/>
       <c r="S42" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="10:19">
       <c r="N43" s="58"/>
       <c r="S43" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="10:19">
       <c r="N44" s="58"/>
       <c r="S44" s="58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="10:19">
       <c r="N45" s="58"/>
       <c r="S45" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="10:19">
       <c r="N46" s="58"/>
       <c r="S46" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="10:19">
       <c r="N47" s="58"/>
       <c r="S47" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="10:19">
       <c r="N48" s="58"/>
       <c r="S48" s="58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="14:19">
       <c r="N49" s="58"/>
       <c r="S49" s="58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="14:19">
       <c r="N50" s="58"/>
       <c r="S50" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="14:19">
       <c r="N51" s="58"/>
       <c r="S51" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="14:19">
       <c r="N52" s="58"/>
       <c r="S52" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="14:19">
       <c r="S53" s="58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N8:N52">
+  <sortState ref="N8:N52">
     <sortCondition ref="N8:N52"/>
   </sortState>
   <mergeCells count="5">

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D179B08-8CD3-4ACF-AA58-2F2448759EFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F002BFE-26F6-42AC-8456-EDC210FC59D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,9 +437,6 @@
     <t>Novi Maya Sari</t>
   </si>
   <si>
-    <t>Khalid Ghazy</t>
-  </si>
-  <si>
     <t>21.02.022</t>
   </si>
   <si>
@@ -1860,18 +1857,28 @@
   </si>
   <si>
     <t>Arviandow Febriansyah</t>
+  </si>
+  <si>
+    <t>Khalid Ghazy Murtadho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2075,26 +2082,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2103,114 +2110,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2579,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>552</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>553</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>3</v>
@@ -2606,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L1" s="43" t="s">
         <v>10</v>
@@ -2615,7 +2623,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O1" s="43" t="s">
         <v>12</v>
@@ -2636,22 +2644,22 @@
         <v>17</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F2" s="44">
         <v>4</v>
@@ -2660,26 +2668,26 @@
         <v>23</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I2" s="34" t="str">
         <f t="shared" ref="I2:I18" si="0">H2</f>
         <v>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>128</v>
@@ -2688,7 +2696,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R2" s="44" t="s">
         <v>31</v>
@@ -2696,19 +2704,19 @@
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
       <c r="U2" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>37</v>
@@ -2720,35 +2728,35 @@
         <v>23</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I3" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>124</v>
       </c>
       <c r="L3" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>550</v>
-      </c>
       <c r="O3" s="34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R3" s="44" t="s">
         <v>31</v>
@@ -2756,19 +2764,19 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>37</v>
@@ -2780,23 +2788,23 @@
         <v>23</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I4" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Raudah, RT 20, No. 30, Kel. Teluk Lerong Ilir, Samarinda Ulu, Kalimantan Timur</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L4" s="34" t="s">
         <v>128</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="34" t="s">
@@ -2806,7 +2814,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R4" s="44" t="s">
         <v>31</v>
@@ -2814,19 +2822,19 @@
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>37</v>
@@ -2838,35 +2846,35 @@
         <v>23</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I5" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Balikpapan Regency, De Valley, D2-33, Sepinggan, Balikpapan</v>
       </c>
       <c r="J5" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="L5" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="N5" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="O5" s="34" t="s">
         <v>438</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>439</v>
       </c>
       <c r="P5" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R5" s="44" t="s">
         <v>31</v>
@@ -2874,19 +2882,19 @@
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>37</v>
@@ -2898,7 +2906,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I6" s="34" t="str">
         <f t="shared" si="0"/>
@@ -2911,13 +2919,13 @@
         <v>98</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M6" s="34" t="s">
         <v>103</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O6" s="34" t="s">
         <v>128</v>
@@ -2926,7 +2934,7 @@
         <v>29</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R6" s="44" t="s">
         <v>31</v>
@@ -2934,22 +2942,22 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F7" s="44">
         <v>3</v>
@@ -2958,24 +2966,24 @@
         <v>23</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I7" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</v>
       </c>
       <c r="J7" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="K7" s="35" t="s">
         <v>498</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>499</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="N7" s="35" t="s">
         <v>500</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>501</v>
       </c>
       <c r="O7" s="34" t="s">
         <v>135</v>
@@ -2984,7 +2992,7 @@
         <v>29</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R7" s="44" t="s">
         <v>31</v>
@@ -2992,19 +3000,19 @@
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>37</v>
@@ -3016,23 +3024,23 @@
         <v>23</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I8" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>530</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>531</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N8" s="34" t="str">
         <f>K8</f>
@@ -3043,7 +3051,7 @@
         <v>29</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R8" s="44" t="s">
         <v>31</v>
@@ -3051,22 +3059,22 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F9" s="44">
         <v>3</v>
@@ -3075,23 +3083,23 @@
         <v>23</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
       </c>
       <c r="J9" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>538</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>539</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N9" s="34"/>
       <c r="O9" s="34" t="s">
@@ -3101,7 +3109,7 @@
         <v>29</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R9" s="44" t="s">
         <v>31</v>
@@ -3109,22 +3117,22 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F10" s="44">
         <v>3</v>
@@ -3133,26 +3141,26 @@
         <v>23</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I10" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>40</v>
@@ -3161,7 +3169,7 @@
         <v>29</v>
       </c>
       <c r="Q10" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R10" s="44" t="s">
         <v>31</v>
@@ -3169,16 +3177,16 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75">
       <c r="A11" s="51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="34"/>
@@ -3201,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R11" s="44" t="s">
         <v>31</v>
@@ -3209,16 +3217,16 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -3241,7 +3249,7 @@
         <v>29</v>
       </c>
       <c r="Q12" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R12" s="44" t="s">
         <v>31</v>
@@ -3249,22 +3257,22 @@
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="F13" s="44">
         <v>1</v>
@@ -3273,26 +3281,26 @@
         <v>23</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I13" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan KS Tubun, Gang Wiratirta, RT 17, Kelurahan Sidodadi, Kecamatan Samarinda Ulu, Kota Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J13" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="K13" s="35" t="s">
         <v>427</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>428</v>
       </c>
       <c r="L13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M13" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="N13" s="35" t="s">
         <v>429</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>430</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>28</v>
@@ -3301,7 +3309,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R13" s="44" t="s">
         <v>31</v>
@@ -3309,22 +3317,22 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F14" s="44">
         <v>5</v>
@@ -3333,24 +3341,24 @@
         <v>23</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I14" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</v>
       </c>
       <c r="J14" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>485</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>486</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="N14" s="35" t="s">
         <v>487</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>488</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>28</v>
@@ -3359,7 +3367,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R14" s="44" t="s">
         <v>31</v>
@@ -3367,22 +3375,22 @@
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F15" s="44">
         <v>1</v>
@@ -3391,26 +3399,26 @@
         <v>23</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
       </c>
       <c r="J15" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="K15" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="L15" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="L15" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="M15" s="34" t="s">
+      <c r="N15" s="35" t="s">
         <v>518</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>519</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>28</v>
@@ -3419,7 +3427,7 @@
         <v>29</v>
       </c>
       <c r="Q15" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R15" s="44" t="s">
         <v>31</v>
@@ -3427,22 +3435,22 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F16" s="44">
         <v>2</v>
@@ -3451,26 +3459,26 @@
         <v>23</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Desa Senyiur</v>
       </c>
       <c r="J16" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="K16" s="35" t="s">
         <v>523</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>524</v>
       </c>
       <c r="L16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="N16" s="35" t="s">
         <v>525</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>526</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>28</v>
@@ -3479,7 +3487,7 @@
         <v>29</v>
       </c>
       <c r="Q16" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R16" s="44" t="s">
         <v>31</v>
@@ -3487,22 +3495,22 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F17" s="44">
         <v>1</v>
@@ -3511,26 +3519,26 @@
         <v>23</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I17" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</v>
       </c>
       <c r="J17" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>492</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>493</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="N17" s="35" t="s">
         <v>494</v>
-      </c>
-      <c r="N17" s="35" t="s">
-        <v>495</v>
       </c>
       <c r="O17" s="34" t="s">
         <v>128</v>
@@ -3539,7 +3547,7 @@
         <v>29</v>
       </c>
       <c r="Q17" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R17" s="44" t="s">
         <v>31</v>
@@ -3547,19 +3555,19 @@
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>37</v>
@@ -3571,23 +3579,23 @@
         <v>23</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I18" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Jalan Rapak Indah Permai, Puri Kencana, Blok L, RT 50, No. 18, Lok Bahu, Sungai Kunjang, Samarinda, Kalimantan Timur</v>
       </c>
       <c r="J18" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="M18" s="34" t="s">
         <v>415</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>416</v>
       </c>
       <c r="N18" s="34"/>
       <c r="O18" s="34" t="s">
@@ -3597,7 +3605,7 @@
         <v>29</v>
       </c>
       <c r="Q18" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R18" s="44" t="s">
         <v>31</v>
@@ -3605,16 +3613,16 @@
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -3636,7 +3644,7 @@
         <v>29</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R19" s="44" t="s">
         <v>31</v>
@@ -3644,22 +3652,22 @@
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F20" s="44">
         <v>3</v>
@@ -3668,26 +3676,26 @@
         <v>23</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I20" s="34" t="str">
         <f>H20</f>
         <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
       </c>
       <c r="J20" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="K20" s="35" t="s">
         <v>478</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>479</v>
       </c>
       <c r="L20" s="34" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="N20" s="35" t="s">
         <v>480</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>481</v>
       </c>
       <c r="O20" s="34" t="s">
         <v>28</v>
@@ -3696,7 +3704,7 @@
         <v>29</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R20" s="44" t="s">
         <v>31</v>
@@ -3704,16 +3712,16 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -3736,7 +3744,7 @@
         <v>29</v>
       </c>
       <c r="Q21" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R21" s="44" t="s">
         <v>31</v>
@@ -3744,22 +3752,22 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F22" s="44">
         <v>2</v>
@@ -3768,26 +3776,26 @@
         <v>23</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I22" s="34" t="str">
         <f>H22</f>
         <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
       </c>
       <c r="J22" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="K22" s="35" t="s">
         <v>505</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>506</v>
       </c>
       <c r="L22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M22" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="N22" s="35" t="s">
         <v>507</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>508</v>
       </c>
       <c r="O22" s="34" t="s">
         <v>28</v>
@@ -3796,7 +3804,7 @@
         <v>29</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R22" s="44" t="s">
         <v>31</v>
@@ -3804,7 +3812,7 @@
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3983,7 +3991,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -4043,7 +4051,7 @@
         <v>32</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4103,7 +4111,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4220,7 +4228,7 @@
         <v>32</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4280,7 +4288,7 @@
         <v>32</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4340,7 +4348,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4400,7 +4408,7 @@
         <v>32</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4460,7 +4468,7 @@
         <v>32</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4520,7 +4528,7 @@
         <v>32</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4580,7 +4588,7 @@
         <v>32</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4640,7 +4648,7 @@
         <v>32</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75">
@@ -4700,7 +4708,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4780,7 +4788,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="6" customFormat="1">
@@ -4854,16 +4862,16 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -4875,20 +4883,20 @@
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Perumahan Keledang Mas Baru, BS 27, Samarinda Seberang, Samarinda</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>121</v>
@@ -4912,7 +4920,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>115</v>
@@ -4967,7 +4975,7 @@
         <v>32</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -5027,21 +5035,21 @@
         <v>32</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
@@ -5053,20 +5061,20 @@
         <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jln. Sukun, RT 25/005, Loa Duri Ilir, Kec. Loa Janan, Kab. Kukar</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>121</v>
@@ -5090,7 +5098,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>130</v>
@@ -5145,21 +5153,21 @@
         <v>32</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
@@ -5171,20 +5179,20 @@
         <v>23</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jl. W. Monginsidi, RT 16, No. 17, Dadimulya, Samarinda, Kaltim</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>121</v>
@@ -5205,7 +5213,7 @@
         <v>32</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -5221,16 +5229,16 @@
     </row>
     <row r="9" spans="1:30" ht="15.75">
       <c r="A9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>37</v>
@@ -5242,19 +5250,19 @@
         <v>23</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>79</v>
@@ -5278,16 +5286,16 @@
     </row>
     <row r="10" spans="1:30" s="6" customFormat="1">
       <c r="A10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
@@ -5304,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>121</v>
@@ -5331,7 +5339,7 @@
         <v>32</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -5347,16 +5355,16 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
@@ -5368,20 +5376,20 @@
         <v>23</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. AP. Mangkunegara, Teluk Dalam, Gang Keluarga 3, Tenggarong, Kutai Kartanegara</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>121</v>
@@ -5402,21 +5410,21 @@
         <v>32</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -5428,20 +5436,20 @@
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>121</v>
@@ -5476,16 +5484,16 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
@@ -5497,20 +5505,20 @@
         <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>121</v>
@@ -5531,7 +5539,7 @@
         <v>32</v>
       </c>
       <c r="S13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -5547,16 +5555,16 @@
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>37</v>
@@ -5568,20 +5576,20 @@
         <v>23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Borneo, RT 24, Kel. Simpang Pasir, Palaran</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>128</v>
@@ -5602,21 +5610,21 @@
         <v>32</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>
@@ -5628,20 +5636,20 @@
         <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Desa Sidomulyo, RT 10, No. 20, Kec. Anggana, Kab. Kukar, Kaltim</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>121</v>
@@ -5662,21 +5670,21 @@
         <v>32</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
@@ -5688,20 +5696,20 @@
         <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulaq Nanga, Gang Melati</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>121</v>
@@ -5722,15 +5730,15 @@
         <v>32</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -5785,16 +5793,16 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -5806,20 +5814,20 @@
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Padat Karya, Gang Kaganangan, RT 73, No. 171, Loa Bakung, Samarinda</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>128</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>128</v>
@@ -5840,21 +5848,21 @@
         <v>32</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:30" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
@@ -5866,20 +5874,20 @@
         <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Karet, Blok F, RT 29, Loa Janan Ulu</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>121</v>
@@ -5902,16 +5910,16 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
@@ -5923,20 +5931,20 @@
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Perum. Apel Biru Hill, Blok AZ, No. 9, Jln. Jakarta, Loa Bakung, Samarinda</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>40</v>
@@ -5957,21 +5965,21 @@
         <v>32</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>22</v>
@@ -5983,20 +5991,20 @@
         <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Loa Pari, RT 4</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>121</v>
@@ -6017,7 +6025,7 @@
         <v>32</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -6033,16 +6041,16 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>37</v>
@@ -6054,20 +6062,20 @@
         <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. Bung Tomo, Perum Keledang Mas Baru, blok BS no 21, RT 20, Kec. Samarinda Seberang, Kel. Sungai Keledang</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>121</v>
@@ -6091,16 +6099,16 @@
     </row>
     <row r="23" spans="1:30" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>22</v>
@@ -6112,20 +6120,20 @@
         <v>23</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Jln. KH. Mas Mansyur, Perum. Batu Penggal, Blok A, No. 10, RT 1, Kel. Loa Bakung, Kec. Sungai Kunjang</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>121</v>
@@ -6292,16 +6300,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
         <v>271</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" t="s">
         <v>273</v>
-      </c>
-      <c r="D2" t="s">
-        <v>274</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -6313,20 +6321,20 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I18" si="0">H2</f>
         <v>Jl. Mugirejo RT 10 Kelurahan Mugirejo</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M2" t="s">
         <v>128</v>
@@ -6335,7 +6343,7 @@
         <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
@@ -6349,16 +6357,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
         <v>285</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" t="s">
         <v>287</v>
-      </c>
-      <c r="D3" t="s">
-        <v>288</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -6370,20 +6378,20 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Slamet Riyadi RT 14 Kelurahan Teluk Lerong Ulu</v>
       </c>
       <c r="J3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M3" t="s">
         <v>121</v>
@@ -6392,7 +6400,7 @@
         <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
@@ -6406,16 +6414,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>
@@ -6427,20 +6435,20 @@
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok S Kelurahan Loa Bakung</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>121</v>
@@ -6449,13 +6457,13 @@
         <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>32</v>
@@ -6463,16 +6471,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
         <v>264</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" t="s">
         <v>266</v>
-      </c>
-      <c r="D5" t="s">
-        <v>267</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -6484,20 +6492,20 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
       </c>
       <c r="J5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K5" t="s">
         <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
@@ -6506,7 +6514,7 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
@@ -6520,16 +6528,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" t="s">
         <v>299</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" t="s">
         <v>301</v>
-      </c>
-      <c r="D6" t="s">
-        <v>302</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -6541,20 +6549,20 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Diponegoro RT 8 Desa Sidomulyo</v>
       </c>
       <c r="J6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M6" t="s">
         <v>121</v>
@@ -6563,7 +6571,7 @@
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
@@ -6577,16 +6585,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
         <v>278</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" t="s">
         <v>280</v>
-      </c>
-      <c r="D7" t="s">
-        <v>281</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -6598,20 +6606,20 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Jakarta 2 RT 81 Kelurahan Loa Bakung</v>
       </c>
       <c r="J7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
         <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M7" t="s">
         <v>121</v>
@@ -6620,7 +6628,7 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P7" t="s">
         <v>31</v>
@@ -6634,16 +6642,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
         <v>292</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" t="s">
         <v>294</v>
-      </c>
-      <c r="D8" t="s">
-        <v>295</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -6655,20 +6663,20 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Gerbang Dayaku RT 24 Kelurahan Loa Duri Ilir</v>
       </c>
       <c r="J8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M8" t="s">
         <v>121</v>
@@ -6677,7 +6685,7 @@
         <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -6691,16 +6699,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" t="s">
         <v>328</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>330</v>
-      </c>
-      <c r="D9" t="s">
-        <v>331</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -6712,20 +6720,20 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Revolusi RT 6 Kelurahan Lok Bahu</v>
       </c>
       <c r="J9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K9" t="s">
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M9" t="s">
         <v>121</v>
@@ -6734,7 +6742,7 @@
         <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P9" t="s">
         <v>31</v>
@@ -6748,16 +6756,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
@@ -6769,20 +6777,20 @@
         <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>121</v>
@@ -6791,7 +6799,7 @@
         <v>29</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>31</v>
@@ -6805,16 +6813,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
@@ -6826,20 +6834,20 @@
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>121</v>
@@ -6848,7 +6856,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>31</v>
@@ -6862,16 +6870,16 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1">
       <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" t="s">
         <v>315</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -6883,20 +6891,20 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>Jl. KH Mas Mansyur RT 18 Kelurahan Loa Bakung</v>
       </c>
       <c r="J12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M12" t="s">
         <v>121</v>
@@ -6905,7 +6913,7 @@
         <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
@@ -6919,16 +6927,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -6940,20 +6948,20 @@
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>121</v>
@@ -6962,7 +6970,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>31</v>
@@ -6976,16 +6984,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
         <v>306</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" t="s">
         <v>308</v>
-      </c>
-      <c r="D14" t="s">
-        <v>309</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -6997,20 +7005,20 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mubasyirot RT 29 Kelurahan Loa Janan Ulu</v>
       </c>
       <c r="J14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K14" t="s">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M14" t="s">
         <v>121</v>
@@ -7019,7 +7027,7 @@
         <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P14" t="s">
         <v>31</v>
@@ -7033,16 +7041,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -7054,35 +7062,35 @@
         <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Jln. KS. Tubun Dalam, Gg. Wiratirta, RT 17, No. 26, Samarinda, Kaltim</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>121</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>32</v>
@@ -7090,16 +7098,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
@@ -7111,20 +7119,20 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RT 12 Desa Sidomulyo Kecamatan Anggana</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>121</v>
@@ -7133,7 +7141,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>31</v>
@@ -7147,16 +7155,16 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
@@ -7168,20 +7176,20 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>121</v>
@@ -7190,7 +7198,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>31</v>
@@ -7204,16 +7212,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
         <v>335</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" t="s">
         <v>337</v>
-      </c>
-      <c r="D18" t="s">
-        <v>338</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -7225,20 +7233,20 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>Jl. Raudah RT 20 Kelurahan Teluk Lerong Ilir</v>
       </c>
       <c r="J18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K18" t="s">
         <v>128</v>
       </c>
       <c r="L18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M18" t="s">
         <v>128</v>
@@ -7247,7 +7255,7 @@
         <v>29</v>
       </c>
       <c r="O18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P18" t="s">
         <v>31</v>
@@ -7305,7 +7313,7 @@
     <row r="1" spans="1:19" ht="85.5" customHeight="1"/>
     <row r="2" spans="1:19" ht="18" customHeight="1">
       <c r="A2" s="63" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -7320,7 +7328,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1">
       <c r="A3" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -7361,52 +7369,52 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="54"/>
       <c r="E6" s="62" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="54"/>
       <c r="I6" s="62" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
       <c r="A7" s="59" t="s">
+        <v>584</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>585</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="C7" s="59" t="s">
         <v>586</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>587</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="59" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>585</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="G7" s="59" t="s">
         <v>586</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>587</v>
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="59" t="s">
+        <v>584</v>
+      </c>
+      <c r="J7" s="59" t="s">
         <v>585</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="K7" s="59" t="s">
         <v>586</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1">
@@ -7414,34 +7422,34 @@
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="53">
         <v>1</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="53">
         <v>1</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N8" s="58"/>
       <c r="S8" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1">
@@ -7449,34 +7457,34 @@
         <v>2</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="53">
         <v>2</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="53">
         <v>2</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N9" s="58"/>
       <c r="S9" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1">
@@ -7484,34 +7492,34 @@
         <v>3</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="53">
         <v>3</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="53">
         <v>3</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K10" s="57" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N10" s="58"/>
       <c r="S10" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1">
@@ -7519,34 +7527,34 @@
         <v>4</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="53">
         <v>4</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="53">
         <v>4</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K11" s="57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N11" s="58"/>
       <c r="S11" s="58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1">
@@ -7554,34 +7562,34 @@
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="53">
         <v>5</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="53">
         <v>8</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K12" s="57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N12" s="58"/>
       <c r="S12" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1">
@@ -7589,34 +7597,34 @@
         <v>6</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="53">
         <v>6</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="53">
         <v>5</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K13" s="57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N13" s="58"/>
       <c r="S13" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1">
@@ -7624,34 +7632,34 @@
         <v>7</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="53">
         <v>7</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="53">
         <v>6</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N14" s="58"/>
       <c r="S14" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1">
@@ -7659,34 +7667,34 @@
         <v>8</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="53">
         <v>8</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="53">
         <v>9</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K15" s="57" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N15" s="58"/>
       <c r="S15" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1">
@@ -7694,34 +7702,34 @@
         <v>9</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="53">
         <v>9</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="53">
         <v>10</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N16" s="58"/>
       <c r="S16" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
@@ -7729,34 +7737,34 @@
         <v>10</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="53">
         <v>10</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="53">
         <v>11</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N17" s="58"/>
       <c r="S17" s="58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1">
@@ -7764,34 +7772,34 @@
         <v>11</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="53">
         <v>11</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="53">
         <v>7</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N18" s="58"/>
       <c r="S18" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1">
@@ -7799,10 +7807,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="53">
@@ -7815,14 +7823,14 @@
         <v>12</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N19" s="58"/>
       <c r="S19" s="58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
@@ -7830,10 +7838,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="53">
@@ -7846,14 +7854,14 @@
         <v>13</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N20" s="58"/>
       <c r="S20" s="58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
@@ -7861,10 +7869,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="53">
@@ -7880,7 +7888,7 @@
       <c r="K21" s="56"/>
       <c r="N21" s="58"/>
       <c r="S21" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1">
@@ -7888,10 +7896,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="53">
@@ -7907,7 +7915,7 @@
       <c r="K22" s="56"/>
       <c r="N22" s="58"/>
       <c r="S22" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -7915,10 +7923,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="53">
@@ -7934,7 +7942,7 @@
       <c r="K23" s="56"/>
       <c r="N23" s="58"/>
       <c r="S23" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1">
@@ -7942,10 +7950,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="53">
@@ -7966,10 +7974,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="53">
@@ -7985,7 +7993,7 @@
       <c r="K25" s="56"/>
       <c r="N25" s="58"/>
       <c r="S25" s="58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
@@ -7993,10 +8001,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="53">
@@ -8012,7 +8020,7 @@
       <c r="K26" s="56"/>
       <c r="N26" s="58"/>
       <c r="S26" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -8020,10 +8028,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="53">
@@ -8039,7 +8047,7 @@
       <c r="K27" s="56"/>
       <c r="N27" s="58"/>
       <c r="S27" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -8047,10 +8055,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="53">
@@ -8066,172 +8074,172 @@
       <c r="K28" s="56"/>
       <c r="N28" s="58"/>
       <c r="S28" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="J29" s="55"/>
       <c r="N29" s="58"/>
       <c r="S29" s="58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="J30" s="55"/>
       <c r="N30" s="58"/>
       <c r="S30" s="58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="J31" s="55"/>
       <c r="N31" s="58"/>
       <c r="S31" s="58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="J32" s="55" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N32" s="58"/>
       <c r="S32" s="58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="10:19">
       <c r="J33" s="54" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N33" s="58"/>
       <c r="S33" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="10:19">
       <c r="J34" s="55"/>
       <c r="N34" s="58"/>
       <c r="S34" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="10:19">
       <c r="J35" s="55"/>
       <c r="N35" s="58"/>
       <c r="S35" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="10:19">
       <c r="J36" s="55"/>
       <c r="N36" s="58"/>
       <c r="S36" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="10:19">
       <c r="J37" s="55"/>
       <c r="N37" s="58"/>
       <c r="S37" s="58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="10:19">
       <c r="J38" s="60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N38" s="58"/>
       <c r="S38" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="10:19">
       <c r="N39" s="58"/>
       <c r="S39" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="10:19">
       <c r="N40" s="58"/>
       <c r="S40" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="10:19">
       <c r="N41" s="58"/>
       <c r="S41" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="10:19">
       <c r="N42" s="58"/>
       <c r="S42" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="10:19">
       <c r="N43" s="58"/>
       <c r="S43" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="10:19">
       <c r="N44" s="58"/>
       <c r="S44" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="10:19">
       <c r="N45" s="58"/>
       <c r="S45" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="10:19">
       <c r="N46" s="58"/>
       <c r="S46" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="10:19">
       <c r="N47" s="58"/>
       <c r="S47" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="10:19">
       <c r="N48" s="58"/>
       <c r="S48" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="14:19">
       <c r="N49" s="58"/>
       <c r="S49" s="58" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="14:19">
       <c r="N50" s="58"/>
       <c r="S50" s="58" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="14:19">
       <c r="N51" s="58"/>
       <c r="S51" s="58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="14:19">
       <c r="N52" s="58"/>
       <c r="S52" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="14:19">
       <c r="S53" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\data mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F002BFE-26F6-42AC-8456-EDC210FC59D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB75C5-3AEB-45DB-8B80-E866DAF97C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <sheet name="NIK" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2209,6 +2220,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2218,7 +2230,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2551,9 +2562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C22" sqref="C2:C22"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3896,7 +3907,7 @@
       <c r="B44" s="30"/>
     </row>
   </sheetData>
-  <sortState ref="A2:U22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
     <sortCondition ref="A2:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,7 +3921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B2:B12"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4695,7 +4706,7 @@
       <c r="A24" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4707,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5157,7 +5168,7 @@
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="62" t="s">
         <v>611</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -6205,7 +6216,7 @@
       <c r="A45" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
     <sortCondition ref="A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7278,7 +7289,7 @@
       <c r="M19" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R18">
     <sortCondition ref="A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7291,7 +7302,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7312,34 +7323,34 @@
   <sheetData>
     <row r="1" spans="1:19" ht="85.5" customHeight="1"/>
     <row r="2" spans="1:19" ht="18" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>582</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1">
       <c r="A4" s="55"/>
@@ -7368,23 +7379,23 @@
       <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>583</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="63" t="s">
         <v>608</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="54"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
       <c r="A7" s="59" t="s">
@@ -8243,7 +8254,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="N8:N52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N8:N52">
     <sortCondition ref="N8:N52"/>
   </sortState>
   <mergeCells count="5">

--- a/pesantren/data mabaiz/data semua santri.xlsx
+++ b/pesantren/data mabaiz/data semua santri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB75C5-3AEB-45DB-8B80-E866DAF97C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A45FE-0039-4895-9197-6FE71E4CCFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2021" sheetId="2" r:id="rId3"/>
     <sheet name="2020" sheetId="1" r:id="rId4"/>
     <sheet name="NIK" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="631">
   <si>
     <t>nama santri</t>
   </si>
@@ -1871,18 +1872,82 @@
   </si>
   <si>
     <t>Khalid Ghazy Murtadho</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>tempat_tanggal_lahir</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>anak_ke</t>
+  </si>
+  <si>
+    <t>status_di_keluarga</t>
+  </si>
+  <si>
+    <t>alamat_orang_tua</t>
+  </si>
+  <si>
+    <t>nama_ayah</t>
+  </si>
+  <si>
+    <t>hp_ayah</t>
+  </si>
+  <si>
+    <t>pekerjaan_ayah</t>
+  </si>
+  <si>
+    <t>nama_ibu</t>
+  </si>
+  <si>
+    <t>hp_ibu</t>
+  </si>
+  <si>
+    <t>pekerjaan_ibu</t>
+  </si>
+  <si>
+    <t>diterima_di_marhalah</t>
+  </si>
+  <si>
+    <t>diterima_pada_tanggal</t>
+  </si>
+  <si>
+    <t>diterima_untuk_semester</t>
+  </si>
+  <si>
+    <t>sekolah_asal</t>
+  </si>
+  <si>
+    <t>angkatan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tidak_putus_sekolah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2093,26 +2158,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2121,113 +2186,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2562,9 +2642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A9B44-12F6-4712-8C6B-1EA7374A630C}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3920,8 +4000,8 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4718,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6228,8 +6308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" activeCellId="10" sqref="B2 B3 B5 B6 B7 B8 B9 B12 B14 B15 B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7301,7 +7381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C95852-DA7B-4CD7-803F-D000A96CAA00}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -8269,4 +8349,4617 @@
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55F56DE-08CE-4344-8696-0073D718E343}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>617</v>
+      </c>
+      <c r="J1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K1" t="s">
+        <v>619</v>
+      </c>
+      <c r="L1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M1" t="s">
+        <v>621</v>
+      </c>
+      <c r="N1" t="s">
+        <v>622</v>
+      </c>
+      <c r="O1" t="s">
+        <v>623</v>
+      </c>
+      <c r="P1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R1" t="s">
+        <v>626</v>
+      </c>
+      <c r="S1" t="s">
+        <v>627</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>416</v>
+      </c>
+      <c r="V1" t="s">
+        <v>628</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I18" si="0">H2</f>
+        <v>Jl. Mugirejo RT 10 Kelurahan Mugirejo</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="66"/>
+      <c r="V2">
+        <v>2020</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Slamet Riyadi RT 14 Kelurahan Teluk Lerong Ulu</v>
+      </c>
+      <c r="J3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="66"/>
+      <c r="V3">
+        <v>2020</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Jakarta Blok S Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="66"/>
+      <c r="V4">
+        <v>2020</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>269</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="66"/>
+      <c r="V5">
+        <v>2020</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Diponegoro RT 8 Desa Sidomulyo</v>
+      </c>
+      <c r="J6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>304</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="O6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>259</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="66"/>
+      <c r="V6">
+        <v>2020</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Jakarta 2 RT 81 Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>283</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="O7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>259</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="66"/>
+      <c r="V7">
+        <v>2020</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Gerbang Dayaku RT 24 Kelurahan Loa Duri Ilir</v>
+      </c>
+      <c r="J8" t="s">
+        <v>296</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>259</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="66"/>
+      <c r="V8">
+        <v>2020</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Revolusi RT 6 Kelurahan Lok Bahu</v>
+      </c>
+      <c r="J9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>333</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="O9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="66"/>
+      <c r="V9">
+        <v>2020</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="66"/>
+      <c r="V10">
+        <v>2020</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Padat Karya RT 73 Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="66"/>
+      <c r="V11">
+        <v>2020</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. KH Mas Mansyur RT 18 Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="O12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>259</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="66"/>
+      <c r="V12">
+        <v>2020</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="66"/>
+      <c r="V13">
+        <v>2020</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Mubasyirot RT 29 Kelurahan Loa Janan Ulu</v>
+      </c>
+      <c r="J14" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>311</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>259</v>
+      </c>
+      <c r="R14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="66"/>
+      <c r="V14">
+        <v>2020</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Jln. KS. Tubun Dalam, Gg. Wiratirta, RT 17, No. 26, Samarinda, Kaltim</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="66"/>
+      <c r="V15">
+        <v>2020</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RT 12 Desa Sidomulyo Kecamatan Anggana</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="66"/>
+      <c r="V16">
+        <v>2020</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Mawar RT  10 Desa Sidomulyo</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="66"/>
+      <c r="V17">
+        <v>2020</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>338</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>Jl. Raudah RT 20 Kelurahan Teluk Lerong Ilir</v>
+      </c>
+      <c r="J18" t="s">
+        <v>339</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="L18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" t="s">
+        <v>340</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="O18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>259</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="66"/>
+      <c r="V18">
+        <v>2020</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19">
+        <v>2021</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" ref="I20:I25" si="1">H20</f>
+        <v>Perumahan Keledang Mas Baru, BS 27, Samarinda Seberang, Samarinda</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20">
+        <v>2021</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. Banggris, No. 18, RT 3, 75127</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="V21">
+        <v>2021</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. Sejati, Perum. Pondok Karya Lestari, Blok D, No. 39, RT 15</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="V22">
+        <v>2021</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. Sukun, RT 25/005, Loa Duri Ilir, Kec. Loa Janan, Kab. Kukar</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23">
+        <v>2021</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jln. Rukun, Rapak Dalam, Samarinda Seberang</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="V24">
+        <v>2021</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="62" t="s">
+        <v>611</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jl. W. Monginsidi, RT 16, No. 17, Dadimulya, Samarinda, Kaltim</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="V25">
+        <v>2021</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75">
+      <c r="A26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26">
+        <v>2021</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="V27">
+        <v>2021</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" ref="I27:I40" si="2">H28</f>
+        <v>Jln. AP. Mangkunegara, Teluk Dalam, Gang Keluarga 3, Tenggarong, Kutai Kartanegara</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="V28">
+        <v>2021</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="14"/>
+      <c r="V29">
+        <v>2021</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Jln. Gunung Triyu 2, Gg. Penggilingan, RT 63, Kec. Loa Ipuh, Kec. Tenggarong</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" t="s">
+        <v>607</v>
+      </c>
+      <c r="V30">
+        <v>2021</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Jln. Borneo, RT 24, Kel. Simpang Pasir, Palaran</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="V31">
+        <v>2021</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Desa Sidomulyo, RT 10, No. 20, Kec. Anggana, Kab. Kukar, Kaltim</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="V32">
+        <v>2021</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ulaq Nanga, Gang Melati</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="V33">
+        <v>2021</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34">
+        <v>2021</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Jln. Padat Karya, Gang Kaganangan, RT 73, No. 171, Loa Bakung, Samarinda</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="V35">
+        <v>2021</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Jln. Karet, Blok F, RT 29, Loa Janan Ulu</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36">
+        <v>2021</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Perum. Apel Biru Hill, Blok AZ, No. 9, Jln. Jakarta, Loa Bakung, Samarinda</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="V37">
+        <v>2021</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Loa Pari, RT 4</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="V38">
+        <v>2021</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Jln. Bung Tomo, Perum Keledang Mas Baru, blok BS no 21, RT 20, Kec. Samarinda Seberang, Kel. Sungai Keledang</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39">
+        <v>2021</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Jln. KH. Mas Mansyur, Perum. Batu Penggal, Blok A, No. 10, RT 1, Kel. Loa Bakung, Kec. Sungai Kunjang</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40">
+        <v>2021</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="8">
+        <v>7</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f t="shared" ref="I41:I51" si="3">H41</f>
+        <v>Jalan Cipto Mangunkusumo, RT 2, Sengkotek, Loa Janan Ilir</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="V41">
+        <v>2022</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Jalan Karet, blok F, RT 29</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="V42">
+        <v>2022</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Jalan Sejuta Pohon, No. 145, Mangkupalas, Samarinda Seberang, Samarinda, Kaltim</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="8"/>
+      <c r="V43">
+        <v>2022</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Perum PKL, blok B, No. 837, RT 13, Sungai Kapih</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="V44">
+        <v>2022</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Jalan P. Antasari, No. 11, RT 24</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="V45">
+        <v>2022</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Perum Batara BP, blok C1, No 22, RT 13, Bukit Pinang, Samarinda Ulu, Kota Samarinda</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="V46">
+        <v>2022</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="8">
+        <v>3</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Perum Mutiara Indah, blok B, no 8, Sempaja Utara, Samarinda</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="V47">
+        <v>2022</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="66"/>
+      <c r="C48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Bengkuring Raya, Jalan Sawi 10, no 51, Kelurahan Sempaja Timur, Samarinda</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="V48">
+        <v>2022</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Jalan Karet, blok F, RT 8, Loa Janan Ulu, Kutai Kartanegara</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="V49">
+        <v>2022</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Jalan Gelatik 1, blok B, RT 13, no. 9, Kel. Temindung Permai, Kec. Sungai Pinang, Samarinda</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="V50">
+        <v>2022</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Jalan Soekarno Hatta, Gang Cinta Ratu, RT 5, Loa Janan Ulu, Kutai Kartanegara</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="V51">
+        <v>2022</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" s="67"/>
+      <c r="C52" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F52" s="44">
+        <v>4</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I52" s="34" t="str">
+        <f t="shared" ref="I52:I68" si="4">H52</f>
+        <v>Jalan Mugirejo, Gang Mukhlis, RT 10, Sungai Pinang</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L52" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="N52" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="O52" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="P52" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R52" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T52" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U52" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="V52">
+        <v>2023</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="44">
+        <v>2</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="I53" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Perumahan Pondok Karya Lestari, Blok D, No 39, RT 15, Kelurahan Sungai Kapih, Kecamatan Sambutan, Samarinda, Kalimantan Timur</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="N53" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="O53" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="P53" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R53" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="V53">
+        <v>2023</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="44">
+        <v>2</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="I54" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Raudah, RT 20, No. 30, Kel. Teluk Lerong Ilir, Samarinda Ulu, Kalimantan Timur</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="P54" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R54" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="V54">
+        <v>2023</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="44">
+        <v>1</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="I55" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Balikpapan Regency, De Valley, D2-33, Sepinggan, Balikpapan</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="N55" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="P55" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R55" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="V55">
+        <v>2023</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="B56" s="68"/>
+      <c r="C56" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="44">
+        <v>3</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="I56" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Gelatik 1, Blok B, RT 13, No 9, Kelurahan Temindung Permai, Kecamatan Sungai Pinang, Samarinda, Kalimantan Timur</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N56" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="P56" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R56" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="V56">
+        <v>2023</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B57" s="67"/>
+      <c r="C57" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F57" s="44">
+        <v>3</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="I57" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Pangeran Antasari, RT 27, Bukuan, Palaran, Samarinda</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="L57" s="35"/>
+      <c r="M57" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="N57" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="O57" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="P57" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R57" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S57" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T57" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U57" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="V57">
+        <v>2023</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" s="68"/>
+      <c r="C58" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="44">
+        <v>1</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="I58" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Cipto Mangunkusumo, RT 9, Sengkotek, Loa Janan Ilir, Samarinda</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="N58" s="34" t="str">
+        <f>K58</f>
+        <v>081515877493</v>
+      </c>
+      <c r="O58" s="34"/>
+      <c r="P58" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R58" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="V58">
+        <v>2023</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B59" s="67"/>
+      <c r="C59" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F59" s="44">
+        <v>3</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="I59" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Simpang Tiga, Loa Janan Ilir, RT 10</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="N59" s="70"/>
+      <c r="O59" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R59" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S59" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T59" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U59" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="V59">
+        <v>2023</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B60" s="67"/>
+      <c r="C60" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F60" s="44">
+        <v>3</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jl. Jakarta Blok BB Kelurahan Loa Bakung</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L60" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="N60" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="O60" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R60" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S60" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T60" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U60" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="V60">
+        <v>2023</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.75">
+      <c r="A61" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="B61" s="67"/>
+      <c r="C61" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R61" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="V61">
+        <v>2023</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75">
+      <c r="A62" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B62" s="67"/>
+      <c r="C62" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R62" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="V62">
+        <v>2023</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" s="67"/>
+      <c r="C63" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F63" s="44">
+        <v>1</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="I63" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan KS Tubun, Gang Wiratirta, RT 17, Kelurahan Sidodadi, Kecamatan Samarinda Ulu, Kota Samarinda, Kalimantan Timur</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="N63" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="O63" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R63" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="V63">
+        <v>2023</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64" s="67"/>
+      <c r="C64" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F64" s="44">
+        <v>5</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="I64" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Padat Karya, Gang Kaganangan 2, Loa Bakung, Samarinda, RT 73, No 16</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="N64" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="O64" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R64" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S64" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T64" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U64" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="V64">
+        <v>2023</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" s="67"/>
+      <c r="C65" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F65" s="44">
+        <v>1</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="I65" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Jenderal Urip Sumoharjo, Gang Lestari, No 5, RT 28</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="K65" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="N65" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="O65" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R65" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S65" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T65" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U65" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="V65">
+        <v>2023</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66" s="67"/>
+      <c r="C66" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F66" s="44">
+        <v>2</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="I66" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Desa Senyiur</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="L66" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="N66" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="O66" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R66" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T66" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U66" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="V66">
+        <v>2023</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67" s="67"/>
+      <c r="C67" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F67" s="44">
+        <v>1</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="I67" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Padat Karya, Gang KH Ahmad Zazi, Loa Bakung, Samarinda, RT 73</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="L67" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="N67" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="O67" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="P67" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R67" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T67" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U67" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="V67">
+        <v>2023</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B68" s="68"/>
+      <c r="C68" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="44">
+        <v>1</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="I68" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Jalan Rapak Indah Permai, Puri Kencana, Blok L, RT 50, No. 18, Lok Bahu, Sungai Kunjang, Samarinda, Kalimantan Timur</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="M68" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="N68" s="70"/>
+      <c r="O68" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="P68" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R68" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="V68">
+        <v>2023</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="B69" s="67"/>
+      <c r="C69" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R69" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="V69">
+        <v>2023</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B70" s="67"/>
+      <c r="C70" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F70" s="44">
+        <v>3</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="I70" s="34" t="str">
+        <f>H70</f>
+        <v>Jalan Mulawarman, RT 23, Loa Duri Ilir, Kecamatan Loa Janan, Kabupaten Kutai Kartanegara, Kaltim</v>
+      </c>
+      <c r="J70" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="K70" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="L70" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="N70" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R70" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S70" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T70" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U70" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="V70">
+        <v>2023</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="B71" s="67"/>
+      <c r="C71" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R71" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S71" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T71" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U71" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="V71">
+        <v>2023</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72" s="67"/>
+      <c r="C72" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F72" s="44">
+        <v>2</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="I72" s="34" t="str">
+        <f>H72</f>
+        <v>Jalan Sukarno Hatta, KM 39, RT 10, Kelurahan Sungai Merdeka, Kecamatan Samboja, Kabupaten Kutai Kartanegara, Kalimantan Timur</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="K72" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="L72" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="N72" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="O72" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="R72" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S72" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="T72" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="U72" s="35" t="s">
+        <v>574</v>
+      </c>
+      <c r="V72">
+        <v>2023</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>